--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D891C3-1319-419E-B082-FA4F9579F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC54033-872A-46C5-824A-55396317EF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="237">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1012,6 +1012,14 @@
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode =  ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4701First</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode = ,AND CustNo = ,AND RvNo = ,AND AcDate =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2679,11 +2687,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37:B38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3077,6 +3085,14 @@
       </c>
       <c r="C35" s="1" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC54033-872A-46C5-824A-55396317EF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565BD09C-B44C-4B91-B1B7-4BE19F2295B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="243">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1019,6 +1019,30 @@
   </si>
   <si>
     <t>AcctCode = ,AND CustNo = ,AND RvNo = ,AND AcDate =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND RelTxseq = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlRelTxseqEq2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlSlipNo2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND SlipNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RelDy = ,AND SlipNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlSlipNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1739,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2687,11 +2711,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3093,6 +3117,39 @@
       </c>
       <c r="B36" s="1" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565BD09C-B44C-4B91-B1B7-4BE19F2295B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BC3053-04A6-4052-BE51-B2C28737DBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="245">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1043,6 +1043,14 @@
   </si>
   <si>
     <t>acdtlSlipNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlTitaBatchNoSlipNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlipNo ASC,RelTxseq,AcSeq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1764,7 +1772,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -2711,11 +2719,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3150,6 +3158,17 @@
       </c>
       <c r="C39" s="1" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BC3053-04A6-4052-BE51-B2C28737DBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -923,14 +922,6 @@
     <t>0:非業務科目
 1:資負明細科目（放款、催收款項..)</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:非銷帳科目(會計科子細目設定檔帶入)
-1:會計銷帳科目(會計科子細目設定檔帶入)
-2:業務銷帳科目(會計科子細目設定檔帶入)
-3:未收費用、4-短繳期金、5-另收欠款(銷帳檔帶入)
-8:核心銷帳碼科目，須以銷帳編號(銷帳碼彙總)上傳核心(會計科子細目設定檔帶入)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1053,11 +1044,19 @@
     <t>SlipNo ASC,RelTxseq,AcSeq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>0:非銷帳科目(會計科子細目設定檔帶入)
+1:會計銷帳科目(會計科子細目設定檔帶入)
+2:業務銷帳科目(會計科子細目設定檔帶入)
+3:未收費用、4-短繳期金、5-另收欠款(業務帶入)
+8:核心銷帳碼科目，須以銷帳編號(銷帳碼彙總)上傳核心(會計科子細目設定檔帶入)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1432,8 +1431,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1524,23 +1523,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1576,23 +1558,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1768,11 +1733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -2288,7 +2253,7 @@
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="37" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4">
@@ -2309,7 +2274,7 @@
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.4">
@@ -2353,7 +2318,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="372.6">
@@ -2373,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2427,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2608,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2718,10 +2683,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
@@ -3110,10 +3075,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>167</v>
@@ -3121,18 +3086,18 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>155</v>
@@ -3140,10 +3105,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>155</v>
@@ -3151,10 +3116,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>155</v>
@@ -3162,13 +3127,13 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="246">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>整批批號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳票批號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -343,10 +339,6 @@
   </si>
   <si>
     <t>登錄經辦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntAc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -648,10 +640,6 @@
   </si>
   <si>
     <t>StampTaxFreeAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SlipBatNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -754,11 +742,6 @@
     <t>AcSubBookCode</t>
   </si>
   <si>
-    <t>系統參數設定檔帶入
-000：全公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SubBookAcNoCodeRange</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -909,13 +892,6 @@
   <si>
     <t>D:借
 C:貸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0:未入帳
-1:已入帳
-2:被沖正(隔日訂正)
-3.沖正(隔日訂正) </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -954,6 +930,104 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>01~10:關帳
+11:支票繳款
+90~99:提存帳務，不會更新AcMain總帳檔
+99:利息提存
+98:迴轉上月
+96:放款承諾
+97:迴轉上月
+95:未付火險費提存
+94:迴轉上月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:一段式
+2:二段式
+3:三段式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlAcDateRange2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode =  ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4701First</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode = ,AND CustNo = ,AND RvNo = ,AND AcDate =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND RelTxseq = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlRelTxseqEq2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlSlipNo2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND SlipNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RelDy = ,AND SlipNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlSlipNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlTitaBatchNoSlipNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlipNo ASC,RelTxseq,AcSeq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非銷帳科目(會計科子細目設定檔帶入)
+1:會計銷帳科目(會計科子細目設定檔帶入)
+2:業務銷帳科目(會計科子細目設定檔帶入)
+3:未收費用、4-短繳期金、5-另收欠款(業務帶入)
+8:核心銷帳碼科目，須以銷帳編號(銷帳碼彙總)上傳核心(會計科子細目設定檔帶入)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlipBatNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳票批號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntAc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未入帳
+1:已入帳
+2:被沖正(隔日訂正)
+3.沖正(隔日訂正)
+9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=1,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findSlipBatNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">撥還共用(0XX)／還款來源(1xx)／撥款方式(2xx)
 090:暫收抵繳
 091:借新還舊
@@ -972,84 +1046,15 @@
 111:匯款轉帳預先作業
 201:整批匯款
 202:單筆匯款
-204:退款台新(存款憑條)
-205:退款他行(整批匯款)
-211:退款新光(存款憑條)
+204:退款他行(匯款單)
+205:核心退款(整批匯款)
+211:退款新光(存入憑條)
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01~10:關帳
-11:支票繳款
-90~99:提存帳務，不會更新AcMain總帳檔
-99:利息提存
-98:迴轉上月
-96:放款承諾
-97:迴轉上月
-95:未付火險費提存
-94:迴轉上月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:一段式
-2:二段式
-3:三段式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>acdtlAcDateRange2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode =  ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL4701First</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode = ,AND CustNo = ,AND RvNo = ,AND AcDate =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate = ,AND RelTxseq = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acdtlRelTxseqEq2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acdtlSlipNo2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcDate = ,AND SlipNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RelDy = ,AND SlipNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acdtlSlipNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acdtlTitaBatchNoSlipNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SlipNo ASC,RelTxseq,AcSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:非銷帳科目(會計科子細目設定檔帶入)
-1:會計銷帳科目(會計科子細目設定檔帶入)
-2:業務銷帳科目(會計科子細目設定檔帶入)
-3:未收費用、4-短繳期金、5-另收欠款(業務帶入)
-8:核心銷帳碼科目，須以銷帳編號(銷帳碼彙總)上傳核心(會計科子細目設定檔帶入)</t>
+    <t>系統參數設定檔帶入
+000：全帳冊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1062,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1736,37 +1741,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" style="26" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.5546875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="90.88671875" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="5.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="12" t="s">
@@ -1779,13 +1784,13 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>13</v>
@@ -1794,7 +1799,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -1805,48 +1810,48 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="64.8">
+    <row r="5" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="81">
+    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="56"/>
       <c r="C6" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="48.6">
+    <row r="7" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" s="57"/>
       <c r="C7" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="42"/>
@@ -1855,7 +1860,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="19" customFormat="1">
+    <row r="9" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
@@ -1878,18 +1883,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E10" s="20">
         <v>8</v>
@@ -1897,15 +1902,15 @@
       <c r="F10" s="8"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>11</v>
@@ -1915,18 +1920,18 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -1937,18 +1942,18 @@
       <c r="F12" s="21"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="20">
         <v>8</v>
@@ -1956,15 +1961,15 @@
       <c r="F13" s="8"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="25" customFormat="1">
+    <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>11</v>
@@ -1975,12 +1980,12 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1994,15 +1999,15 @@
       <c r="F15" s="8"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>11</v>
@@ -2012,39 +2017,39 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="35" customFormat="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>8</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>76</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>77</v>
       </c>
       <c r="E17" s="31">
         <v>5</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>11</v>
@@ -2054,39 +2059,39 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="35" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>10</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="33">
         <v>3</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>11</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>11</v>
@@ -2095,18 +2100,18 @@
         <v>1</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>12</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -2118,32 +2123,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="64.8">
+    <row r="22" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="20">
         <v>1</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>15</v>
@@ -2157,12 +2162,12 @@
       <c r="F23" s="21"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>15</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>16</v>
@@ -2176,15 +2181,15 @@
       <c r="F24" s="21"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>16</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>26</v>
@@ -2193,12 +2198,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>17</v>
@@ -2211,60 +2216,60 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="35" customFormat="1" ht="32.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="35" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>18</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="33">
         <v>1</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="35" customFormat="1" ht="81">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="35" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>19</v>
       </c>
       <c r="B28" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>61</v>
-      </c>
       <c r="D28" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="33">
         <v>1</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="37" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>20</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>26</v>
@@ -2274,82 +2279,82 @@
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="32.4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="30">
         <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="81">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>22</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="49">
         <v>3</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="51" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="372.6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>23</v>
       </c>
       <c r="B32" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>54</v>
-      </c>
       <c r="D32" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="28">
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>24</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>11</v>
@@ -2358,69 +2363,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>25</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="20">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="145.80000000000001">
+    <row r="35" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>26</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="28">
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>27</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>28</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>11</v>
@@ -2431,15 +2436,15 @@
       <c r="F37" s="21"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>29</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>11</v>
@@ -2450,15 +2455,15 @@
       <c r="F38" s="21"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>30</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>14</v>
@@ -2469,12 +2474,12 @@
       <c r="F39" s="21"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>31</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>19</v>
@@ -2488,15 +2493,15 @@
       <c r="F40" s="21"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>32</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>11</v>
@@ -2505,12 +2510,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>27</v>
@@ -2522,15 +2527,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>34</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>11</v>
@@ -2539,15 +2544,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>35</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>11</v>
@@ -2556,15 +2561,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="48.6">
+    <row r="45" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>39</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>26</v>
@@ -2573,18 +2578,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>11</v>
@@ -2593,32 +2598,32 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="35" customFormat="1">
+    <row r="47" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>38</v>
       </c>
       <c r="B47" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="38" t="s">
         <v>95</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>97</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="34"/>
       <c r="G47" s="31"/>
     </row>
-    <row r="48" spans="1:7" s="35" customFormat="1">
+    <row r="48" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>39</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>11</v>
@@ -2629,32 +2634,32 @@
       <c r="F48" s="34"/>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" s="35" customFormat="1">
+    <row r="49" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>40</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="34"/>
       <c r="G49" s="31"/>
     </row>
-    <row r="50" spans="1:7" s="35" customFormat="1">
+    <row r="50" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>41</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>11</v>
@@ -2684,14 +2689,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="160.33203125" style="1" customWidth="1"/>
@@ -2699,7 +2704,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2710,430 +2715,438 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="34" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="32.4">
-      <c r="A22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="32.4">
-      <c r="A23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="32.4">
-      <c r="A24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="32.4">
-      <c r="A25" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="32.4">
-      <c r="A26" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="32.4">
-      <c r="A27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="32.4">
-      <c r="A29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="32.4">
-      <c r="A30" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="32.4">
-      <c r="A31" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="32.4">
-      <c r="A32" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="32.4">
-      <c r="A33" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="32.4">
-      <c r="A34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>243</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3164,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
@@ -3163,17 +3176,17 @@
     <col min="8" max="8" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -3196,16 +3209,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="45" customFormat="1" ht="162">
+    <row r="6" spans="1:8" s="45" customFormat="1" ht="162" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" s="31">
         <v>1</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>11</v>
@@ -3215,41 +3228,41 @@
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="45" customFormat="1" ht="64.8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="45" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="31">
         <v>2</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F7" s="46">
         <v>1</v>
       </c>
       <c r="G7" s="44"/>
       <c r="H7" s="47" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="45" customFormat="1" ht="32.4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="45" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="31">
         <v>3</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>14</v>
@@ -3261,28 +3274,28 @@
         <v>2</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="31">
         <v>4</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F9" s="31">
         <v>3</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="36" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B1C260-0272-42DD-AF71-86A2A670DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="247">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1057,12 +1058,16 @@
 000：全帳冊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>AcctCode,CustNo,FacmNo,AcDate,RvNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1436,8 +1441,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1528,6 +1533,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1563,6 +1585,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1738,14 +1777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="20" bestFit="1" customWidth="1"/>
@@ -1756,7 +1795,7 @@
     <col min="8" max="16384" width="5.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1810,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="12" t="s">
@@ -1784,7 +1823,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1838,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -1810,7 +1849,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="64.8">
       <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1862,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="81">
       <c r="A6" s="55" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1875,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="48.6">
       <c r="A7" s="55" t="s">
         <v>154</v>
       </c>
@@ -1849,18 +1888,20 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="32.4">
       <c r="A8" s="55" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="57"/>
-      <c r="C8" s="42"/>
+      <c r="C8" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="19" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -1902,7 +1943,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -1923,7 +1964,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -1942,7 +1983,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -1961,7 +2002,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="25" customFormat="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -1980,7 +2021,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="20">
         <v>6</v>
       </c>
@@ -1999,7 +2040,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -2020,7 +2061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="35" customFormat="1">
       <c r="A17" s="20">
         <v>8</v>
       </c>
@@ -2041,7 +2082,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -2062,7 +2103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="35" customFormat="1">
       <c r="A19" s="20">
         <v>10</v>
       </c>
@@ -2083,7 +2124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="32.4">
       <c r="A20" s="20">
         <v>11</v>
       </c>
@@ -2103,7 +2144,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="20">
         <v>12</v>
       </c>
@@ -2123,7 +2164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="97.2">
       <c r="A22" s="20">
         <v>13</v>
       </c>
@@ -2143,7 +2184,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="20">
         <v>14</v>
       </c>
@@ -2162,7 +2203,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="20">
         <v>15</v>
       </c>
@@ -2181,7 +2222,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="20">
         <v>16</v>
       </c>
@@ -2198,7 +2239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="20">
         <v>17</v>
       </c>
@@ -2219,7 +2260,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="35" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="35" customFormat="1" ht="32.4">
       <c r="A27" s="20">
         <v>18</v>
       </c>
@@ -2240,7 +2281,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="35" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="35" customFormat="1" ht="81">
       <c r="A28" s="20">
         <v>19</v>
       </c>
@@ -2261,7 +2302,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4">
       <c r="A29" s="20">
         <v>20</v>
       </c>
@@ -2282,7 +2323,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="32.4">
       <c r="A30" s="20">
         <v>21</v>
       </c>
@@ -2305,7 +2346,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="81">
       <c r="A31" s="20">
         <v>22</v>
       </c>
@@ -2326,7 +2367,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="372.6">
       <c r="A32" s="20">
         <v>23</v>
       </c>
@@ -2346,7 +2387,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="20">
         <v>24</v>
       </c>
@@ -2363,7 +2404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="20">
         <v>25</v>
       </c>
@@ -2380,7 +2421,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="145.80000000000001">
       <c r="A35" s="20">
         <v>26</v>
       </c>
@@ -2400,7 +2441,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="20">
         <v>27</v>
       </c>
@@ -2417,7 +2458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="20">
         <v>28</v>
       </c>
@@ -2436,7 +2477,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="20">
         <v>29</v>
       </c>
@@ -2455,7 +2496,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="20">
         <v>30</v>
       </c>
@@ -2474,7 +2515,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="20">
         <v>31</v>
       </c>
@@ -2493,7 +2534,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="20">
         <v>32</v>
       </c>
@@ -2510,7 +2551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="20">
         <v>33</v>
       </c>
@@ -2527,7 +2568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="20">
         <v>34</v>
       </c>
@@ -2544,7 +2585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="20">
         <v>35</v>
       </c>
@@ -2561,7 +2602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="48.6">
       <c r="A45" s="20">
         <v>36</v>
       </c>
@@ -2581,7 +2622,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="20">
         <v>37</v>
       </c>
@@ -2598,7 +2639,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="35" customFormat="1">
       <c r="A47" s="20">
         <v>38</v>
       </c>
@@ -2615,7 +2656,7 @@
       <c r="F47" s="34"/>
       <c r="G47" s="31"/>
     </row>
-    <row r="48" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="35" customFormat="1">
       <c r="A48" s="20">
         <v>39</v>
       </c>
@@ -2634,7 +2675,7 @@
       <c r="F48" s="34"/>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" s="35" customFormat="1">
       <c r="A49" s="20">
         <v>40</v>
       </c>
@@ -2651,7 +2692,7 @@
       <c r="F49" s="34"/>
       <c r="G49" s="31"/>
     </row>
-    <row r="50" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="35" customFormat="1">
       <c r="A50" s="20">
         <v>41</v>
       </c>
@@ -2688,7 +2729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2696,7 +2737,7 @@
       <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="160.33203125" style="1" customWidth="1"/>
@@ -2704,7 +2745,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2715,7 +2756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -2726,7 +2767,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="32.4">
       <c r="A3" s="1" t="s">
         <v>167</v>
       </c>
@@ -2737,7 +2778,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -2748,7 +2789,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -2759,7 +2800,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>106</v>
       </c>
@@ -2770,7 +2811,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -2781,7 +2822,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -2792,7 +2833,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -2803,7 +2844,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
@@ -2814,7 +2855,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>166</v>
       </c>
@@ -2825,7 +2866,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>126</v>
       </c>
@@ -2836,7 +2877,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>128</v>
       </c>
@@ -2847,7 +2888,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
@@ -2858,7 +2899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -2869,7 +2910,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -2880,7 +2921,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>148</v>
       </c>
@@ -2891,7 +2932,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>162</v>
       </c>
@@ -2902,7 +2943,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -2913,7 +2954,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>168</v>
       </c>
@@ -2924,7 +2965,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>183</v>
       </c>
@@ -2935,7 +2976,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="32.4">
       <c r="A22" s="1" t="s">
         <v>184</v>
       </c>
@@ -2946,7 +2987,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="32.4">
       <c r="A23" s="1" t="s">
         <v>185</v>
       </c>
@@ -2957,7 +2998,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="32.4">
       <c r="A24" s="1" t="s">
         <v>186</v>
       </c>
@@ -2968,7 +3009,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="32.4">
       <c r="A25" s="1" t="s">
         <v>187</v>
       </c>
@@ -2979,7 +3020,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="32.4">
       <c r="A26" s="1" t="s">
         <v>188</v>
       </c>
@@ -2990,7 +3031,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="32.4">
       <c r="A27" s="1" t="s">
         <v>189</v>
       </c>
@@ -3001,7 +3042,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>199</v>
       </c>
@@ -3012,7 +3053,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="32.4">
       <c r="A29" s="1" t="s">
         <v>200</v>
       </c>
@@ -3023,7 +3064,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="32.4">
       <c r="A30" s="1" t="s">
         <v>201</v>
       </c>
@@ -3034,7 +3075,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="32.4">
       <c r="A31" s="1" t="s">
         <v>202</v>
       </c>
@@ -3045,7 +3086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="32.4">
       <c r="A32" s="1" t="s">
         <v>203</v>
       </c>
@@ -3056,7 +3097,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="32.4">
       <c r="A33" s="1" t="s">
         <v>204</v>
       </c>
@@ -3067,7 +3108,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="32.4">
       <c r="A34" s="1" t="s">
         <v>205</v>
       </c>
@@ -3078,7 +3119,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>226</v>
       </c>
@@ -3089,7 +3130,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>228</v>
       </c>
@@ -3097,7 +3138,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>231</v>
       </c>
@@ -3108,7 +3149,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>232</v>
       </c>
@@ -3119,7 +3160,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>235</v>
       </c>
@@ -3130,7 +3171,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>236</v>
       </c>
@@ -3141,7 +3182,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>243</v>
       </c>
@@ -3157,14 +3198,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
@@ -3176,17 +3217,17 @@
     <col min="8" max="8" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -3209,7 +3250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="45" customFormat="1" ht="162" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="45" customFormat="1" ht="162">
       <c r="A6" s="43"/>
       <c r="B6" s="31">
         <v>1</v>
@@ -3231,7 +3272,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="45" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="45" customFormat="1" ht="64.8">
       <c r="A7" s="43"/>
       <c r="B7" s="31">
         <v>2</v>
@@ -3253,7 +3294,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="45" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="45" customFormat="1" ht="32.4">
       <c r="A8" s="43"/>
       <c r="B8" s="31">
         <v>3</v>
@@ -3277,7 +3318,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="31">
         <v>4</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B1C260-0272-42DD-AF71-86A2A670DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
+    <sheet name="彙總傳票" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="254">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,9 +142,6 @@
   <si>
     <t>TitaSecNo</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
   </si>
   <si>
     <t>SlipNote</t>
@@ -1014,14 +1011,6 @@
   </si>
   <si>
     <t>EntAc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未入帳
-1:已入帳
-2:被沖正(隔日訂正)
-3.沖正(隔日訂正)
-9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=1,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1062,12 +1051,53 @@
     <t>AcctCode,CustNo,FacmNo,AcDate,RvNo</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未入帳
+1:已入帳
+2:被沖正(訂正)
+3.沖正(訂正)
+9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=1,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaBatchNo(5:2)+TitaBatchSeq(6) = TitaTxtNo 時
+join BatxDetail (AcDate+TitaBatchNo+TitaBatchSeq)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatxDetail.RepayCode in (01,02,03,04)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳票號碼9xxxx</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件一</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件二</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件三</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>彙總傳票分類加總方式同[總傳票明細表]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1174,7 +1204,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1184,6 +1214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1437,12 +1473,21 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1533,23 +1578,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1585,23 +1613,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1777,14 +1788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="20" bestFit="1" customWidth="1"/>
@@ -1795,22 +1806,22 @@
     <col min="8" max="16384" width="5.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="12" t="s">
@@ -1823,13 +1834,13 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>13</v>
@@ -1838,7 +1849,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
@@ -1849,59 +1860,59 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="64.8">
+    <row r="5" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="81">
+    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="56"/>
       <c r="C6" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="48.6">
+    <row r="7" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="57"/>
       <c r="C7" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="32.4">
+    <row r="8" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="19" customFormat="1">
+    <row r="9" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
@@ -1924,18 +1935,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E10" s="20">
         <v>8</v>
@@ -1943,15 +1954,15 @@
       <c r="F10" s="8"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>11</v>
@@ -1961,18 +1972,18 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -1983,18 +1994,18 @@
       <c r="F12" s="21"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="20">
         <v>8</v>
@@ -2002,15 +2013,15 @@
       <c r="F13" s="8"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="25" customFormat="1">
+    <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>11</v>
@@ -2021,12 +2032,12 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -2040,15 +2051,15 @@
       <c r="F15" s="8"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>11</v>
@@ -2058,39 +2069,39 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="35" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>8</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>75</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>76</v>
       </c>
       <c r="E17" s="31">
         <v>5</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>11</v>
@@ -2100,36 +2111,36 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="35" customFormat="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>10</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="33">
         <v>3</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>11</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>29</v>
@@ -2141,18 +2152,18 @@
         <v>1</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>12</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -2164,32 +2175,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="97.2">
+    <row r="22" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="E22" s="20">
         <v>1</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>15</v>
@@ -2203,12 +2214,12 @@
       <c r="F23" s="21"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>15</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>16</v>
@@ -2222,12 +2233,12 @@
       <c r="F24" s="21"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>16</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>30</v>
@@ -2239,12 +2250,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>17</v>
@@ -2257,60 +2268,60 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="35" customFormat="1" ht="32.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="35" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>18</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="33">
         <v>1</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="35" customFormat="1" ht="81">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="35" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>19</v>
       </c>
       <c r="B28" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>60</v>
-      </c>
       <c r="D28" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="33">
         <v>1</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>20</v>
       </c>
       <c r="B29" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>84</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>26</v>
@@ -2320,82 +2331,82 @@
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="32.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="30">
         <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="81">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>22</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="49">
         <v>3</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="51" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="372.6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>23</v>
       </c>
       <c r="B32" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>53</v>
-      </c>
       <c r="D32" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="28">
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>24</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>11</v>
@@ -2404,69 +2415,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>25</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="20">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="145.80000000000001">
+    <row r="35" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>26</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>240</v>
-      </c>
       <c r="D35" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="28">
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>27</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>28</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>11</v>
@@ -2477,15 +2488,15 @@
       <c r="F37" s="21"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>29</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>11</v>
@@ -2496,15 +2507,15 @@
       <c r="F38" s="21"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>30</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>14</v>
@@ -2515,12 +2526,12 @@
       <c r="F39" s="21"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>31</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>19</v>
@@ -2534,7 +2545,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>32</v>
       </c>
@@ -2551,12 +2562,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>27</v>
@@ -2568,15 +2579,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>34</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>11</v>
@@ -2585,15 +2596,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>35</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>11</v>
@@ -2602,15 +2613,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="48.6">
+    <row r="45" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>39</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>26</v>
@@ -2619,18 +2630,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>11</v>
@@ -2639,32 +2650,32 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="35" customFormat="1">
+    <row r="47" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>38</v>
       </c>
       <c r="B47" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="D47" s="38" t="s">
         <v>94</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>95</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="34"/>
       <c r="G47" s="31"/>
     </row>
-    <row r="48" spans="1:7" s="35" customFormat="1">
+    <row r="48" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>39</v>
       </c>
       <c r="B48" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="38" t="s">
         <v>96</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>97</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>11</v>
@@ -2675,32 +2686,32 @@
       <c r="F48" s="34"/>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" s="35" customFormat="1">
+    <row r="49" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>40</v>
       </c>
       <c r="B49" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="38" t="s">
-        <v>99</v>
-      </c>
       <c r="D49" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="34"/>
       <c r="G49" s="31"/>
     </row>
-    <row r="50" spans="1:7" s="35" customFormat="1">
+    <row r="50" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>41</v>
       </c>
       <c r="B50" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="38" t="s">
         <v>100</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>101</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>11</v>
@@ -2729,7 +2740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2737,7 +2748,7 @@
       <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="160.33203125" style="1" customWidth="1"/>
@@ -2745,7 +2756,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2756,438 +2767,438 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="32" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="33" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="34" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="32.4">
-      <c r="A22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="32.4">
-      <c r="A23" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="32.4">
-      <c r="A24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="32.4">
-      <c r="A25" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="32.4">
-      <c r="A26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="32.4">
-      <c r="A27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="32.4">
-      <c r="A29" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="32.4">
-      <c r="A30" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="32.4">
-      <c r="A31" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="32.4">
-      <c r="A32" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="32.4">
-      <c r="A33" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="32.4">
-      <c r="A34" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3198,14 +3209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
@@ -3217,17 +3228,17 @@
     <col min="8" max="8" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -3250,16 +3261,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="45" customFormat="1" ht="162">
+    <row r="6" spans="1:8" s="45" customFormat="1" ht="162" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" s="31">
         <v>1</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>11</v>
@@ -3269,41 +3280,41 @@
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="45" customFormat="1" ht="64.8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="45" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="31">
         <v>2</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="E7" s="40" t="s">
         <v>177</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>178</v>
       </c>
       <c r="F7" s="46">
         <v>1</v>
       </c>
       <c r="G7" s="44"/>
       <c r="H7" s="47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="45" customFormat="1" ht="32.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="45" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="31">
         <v>3</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>14</v>
@@ -3315,28 +3326,28 @@
         <v>2</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="31">
         <v>4</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="31" t="s">
         <v>216</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="F9" s="31">
         <v>3</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3344,4 +3355,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="261">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -630,14 +630,6 @@
   </si>
   <si>
     <t>單位別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>免印花稅金額</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>StampTaxFreeAmt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -729,10 +721,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>還款來源 = 4.支票兌現 &amp;&amp; 業務科目 = 利息收入(Ixx)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>區隔帳冊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -866,18 +854,6 @@
   <si>
     <t>AcctCode = ,AND CustNo = ,AND RvNo = ,</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RvAcctCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳業務科目代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>出帳與銷帳科目不同時寫入</t>
@@ -1018,13 +994,117 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>系統參數設定檔帶入
+000：全帳冊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode,CustNo,FacmNo,AcDate,RvNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未入帳
+1:已入帳
+2:被沖正(訂正)
+3.沖正(訂正)
+9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=1,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaBatchNo(5:2)+TitaBatchSeq(6) = TitaTxtNo 時
+join BatxDetail (AcDate+TitaBatchNo+TitaBatchSeq)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatxDetail.RepayCode in (01,02,03,04)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳票號碼9xxxx</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件一</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件二</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件三</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>彙總傳票分類加總方式同[總傳票明細表]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>StampTaxFreeAmt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>免印花稅金額</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvAcctCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳業務科目代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款序號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BorxNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易內容檔序號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款來源 = 4.支票兌現 &amp;&amp; 業務科目 = 利息收入(Ixx)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款交易內容檔鍵值(與帳務檔不同時)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款交易內容檔鍵值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">撥還共用(0XX)／還款來源(1xx)／撥款方式(2xx)
+001:催呆轉帳
 090:暫收抵繳
 091:借新還舊
 092:暫收轉帳
 093:抽退票
 094:轉債協暫收款
 095:轉債協退還款
+099:暫收沖正
 101:匯款轉帳
 102:銀行扣款
 103:員工扣款
@@ -1042,62 +1122,12 @@
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>系統參數設定檔帶入
-000：全帳冊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode,CustNo,FacmNo,AcDate,RvNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未入帳
-1:已入帳
-2:被沖正(訂正)
-3.沖正(訂正)
-9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=1,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaBatchNo(5:2)+TitaBatchSeq(6) = TitaTxtNo 時
-join BatxDetail (AcDate+TitaBatchNo+TitaBatchSeq)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatxDetail.RepayCode in (01,02,03,04)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳票號碼9xxxx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>條件一</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>條件二</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>條件三</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>彙總傳票分類加總方式同[總傳票明細表]</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1296,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1435,9 +1465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1462,6 +1489,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1473,15 +1518,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1791,11 +1827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="20" bestFit="1" customWidth="1"/>
@@ -1806,11 +1842,11 @@
     <col min="8" max="16384" width="5.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
@@ -1821,9 +1857,9 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1834,11 +1870,11 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="16" t="s">
         <v>73</v>
       </c>
@@ -1849,22 +1885,22 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:7" ht="64.8">
+      <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="16" t="s">
         <v>42</v>
       </c>
@@ -1873,11 +1909,11 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:7" ht="81">
+      <c r="A6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="16" t="s">
         <v>85</v>
       </c>
@@ -1886,11 +1922,11 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:7" ht="48.6">
+      <c r="A7" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="42" t="s">
         <v>155</v>
       </c>
@@ -1899,20 +1935,20 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:7" ht="32.4">
+      <c r="A8" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="19" customFormat="1">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
@@ -1935,7 +1971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -1954,7 +1990,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -1975,7 +2011,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -1994,7 +2030,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -2013,7 +2049,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="25" customFormat="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -2032,7 +2068,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="20">
         <v>6</v>
       </c>
@@ -2051,7 +2087,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="20">
         <v>7</v>
       </c>
@@ -2064,7 +2100,7 @@
       <c r="D16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <v>11</v>
       </c>
       <c r="F16" s="8"/>
@@ -2072,7 +2108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="35" customFormat="1">
       <c r="A17" s="20">
         <v>8</v>
       </c>
@@ -2093,7 +2129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="20">
         <v>9</v>
       </c>
@@ -2114,7 +2150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="35" customFormat="1">
       <c r="A19" s="20">
         <v>10</v>
       </c>
@@ -2135,7 +2171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="32.4">
       <c r="A20" s="20">
         <v>11</v>
       </c>
@@ -2151,11 +2187,11 @@
       <c r="E20" s="20">
         <v>1</v>
       </c>
-      <c r="G20" s="53" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="20">
         <v>12</v>
       </c>
@@ -2175,32 +2211,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="97.2">
       <c r="A22" s="20">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E22" s="20">
         <v>1</v>
       </c>
-      <c r="G22" s="54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="20">
         <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>15</v>
@@ -2214,7 +2250,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="20">
         <v>15</v>
       </c>
@@ -2233,7 +2269,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="20">
         <v>16</v>
       </c>
@@ -2250,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="20">
         <v>17</v>
       </c>
@@ -2268,10 +2304,10 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="35" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="35" customFormat="1" ht="32.4">
       <c r="A27" s="20">
         <v>18</v>
       </c>
@@ -2279,7 +2315,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>57</v>
@@ -2289,10 +2325,10 @@
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="36" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="35" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="35" customFormat="1" ht="81">
       <c r="A28" s="20">
         <v>19</v>
       </c>
@@ -2310,10 +2346,10 @@
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4">
       <c r="A29" s="20">
         <v>20</v>
       </c>
@@ -2331,15 +2367,15 @@
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="32.4">
       <c r="A30" s="20">
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>53</v>
@@ -2354,31 +2390,31 @@
         <v>46</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="81">
       <c r="A31" s="20">
         <v>22</v>
       </c>
-      <c r="B31" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="48" t="s">
+      <c r="B31" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="48">
         <v>3</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="51" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="372.6" x14ac:dyDescent="0.3">
+      <c r="G31" s="50" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="405">
       <c r="A32" s="20">
         <v>23</v>
       </c>
@@ -2395,10 +2431,10 @@
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="20">
         <v>24</v>
       </c>
@@ -2415,7 +2451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="20">
         <v>25</v>
       </c>
@@ -2432,15 +2468,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="145.80000000000001">
       <c r="A35" s="20">
         <v>26</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>47</v>
@@ -2449,15 +2485,15 @@
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="20">
         <v>27</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>40</v>
@@ -2469,7 +2505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="20">
         <v>28</v>
       </c>
@@ -2488,7 +2524,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="20">
         <v>29</v>
       </c>
@@ -2507,7 +2543,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="20">
         <v>30</v>
       </c>
@@ -2526,7 +2562,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="20">
         <v>31</v>
       </c>
@@ -2545,7 +2581,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="20">
         <v>32</v>
       </c>
@@ -2562,7 +2598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="20">
         <v>33</v>
       </c>
@@ -2579,7 +2615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="20">
         <v>34</v>
       </c>
@@ -2596,7 +2632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="20">
         <v>35</v>
       </c>
@@ -2613,7 +2649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="48.6">
       <c r="A45" s="20">
         <v>36</v>
       </c>
@@ -2630,10 +2666,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="20">
         <v>37</v>
       </c>
@@ -2650,7 +2686,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="35" customFormat="1">
       <c r="A47" s="20">
         <v>38</v>
       </c>
@@ -2667,7 +2703,7 @@
       <c r="F47" s="34"/>
       <c r="G47" s="31"/>
     </row>
-    <row r="48" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="35" customFormat="1">
       <c r="A48" s="20">
         <v>39</v>
       </c>
@@ -2686,7 +2722,7 @@
       <c r="F48" s="34"/>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" s="35" customFormat="1">
       <c r="A49" s="20">
         <v>40</v>
       </c>
@@ -2703,7 +2739,7 @@
       <c r="F49" s="34"/>
       <c r="G49" s="31"/>
     </row>
-    <row r="50" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="35" customFormat="1">
       <c r="A50" s="20">
         <v>41</v>
       </c>
@@ -2748,7 +2784,7 @@
       <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="160.33203125" style="1" customWidth="1"/>
@@ -2756,7 +2792,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2767,29 +2803,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="32.4">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -2800,7 +2836,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>104</v>
       </c>
@@ -2811,7 +2847,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -2822,7 +2858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
@@ -2833,7 +2869,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>107</v>
       </c>
@@ -2844,7 +2880,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -2855,7 +2891,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2866,18 +2902,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -2888,7 +2924,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
@@ -2899,7 +2935,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>129</v>
       </c>
@@ -2910,7 +2946,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>134</v>
       </c>
@@ -2921,18 +2957,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>147</v>
       </c>
@@ -2943,9 +2979,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>128</v>
@@ -2954,248 +2990,248 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="32.4">
       <c r="A22" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="32.4">
       <c r="A23" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="32.4">
       <c r="A24" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="32.4">
       <c r="A25" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="32.4">
       <c r="A26" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="32.4">
       <c r="A27" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="32.4">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="32.4">
       <c r="A30" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="32.4">
       <c r="A31" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="32.4">
       <c r="A32" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="32.4">
       <c r="A33" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="32.4">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>135</v>
@@ -3210,13 +3246,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
@@ -3228,17 +3264,17 @@
     <col min="8" max="8" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -3261,7 +3297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="45" customFormat="1" ht="162" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="45" customFormat="1" ht="162">
       <c r="A6" s="43"/>
       <c r="B6" s="31">
         <v>1</v>
@@ -3280,44 +3316,44 @@
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="45" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="45" customFormat="1" ht="64.8">
       <c r="A7" s="43"/>
       <c r="B7" s="31">
         <v>2</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="46">
-        <v>1</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="45" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" s="45" customFormat="1" ht="32.4">
       <c r="A8" s="43"/>
       <c r="B8" s="31">
         <v>3</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>159</v>
+      <c r="C8" s="44" t="s">
+        <v>247</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>14</v>
+        <v>248</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>249</v>
       </c>
       <c r="F8" s="31">
         <v>16</v>
@@ -3325,33 +3361,105 @@
       <c r="G8" s="31">
         <v>2</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9" s="31">
         <v>4</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>216</v>
+      <c r="C9" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>252</v>
       </c>
       <c r="F9" s="31">
         <v>3</v>
       </c>
       <c r="G9" s="31"/>
-      <c r="H9" s="36" t="s">
-        <v>217</v>
-      </c>
+      <c r="H9" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="31">
+        <v>5</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="31">
+        <v>3</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="31">
+        <v>6</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="31">
+        <v>3</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="31">
+        <v>7</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="31">
+        <v>4</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="59"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3361,45 +3469,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="60"/>
+    <col min="1" max="1" width="16" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>253</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32.4">
+      <c r="A2" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -960,10 +960,6 @@
   <si>
     <t>acdtlSlipNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acdtlTitaBatchNoSlipNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SlipNo ASC,RelTxseq,AcSeq</t>
@@ -1120,6 +1116,10 @@
 205:核心退款(整批匯款)
 211:退款新光(存入憑條)
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlTitaBatchNoSlipNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1326,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,15 +1496,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1827,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -1843,10 +1834,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
@@ -1858,8 +1849,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1871,10 +1862,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="16" t="s">
         <v>73</v>
       </c>
@@ -1886,10 +1877,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="14"/>
@@ -1897,10 +1888,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="64.8">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="16" t="s">
         <v>42</v>
       </c>
@@ -1910,10 +1901,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="81">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="16" t="s">
         <v>85</v>
       </c>
@@ -1923,10 +1914,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="48.6">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="42" t="s">
         <v>155</v>
       </c>
@@ -1936,12 +1927,12 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="32.4">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="14"/>
@@ -2216,19 +2207,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E22" s="20">
         <v>1</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2346,7 +2337,7 @@
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4">
@@ -2390,7 +2381,7 @@
         <v>46</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81">
@@ -2431,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2473,10 +2464,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>47</v>
@@ -2779,9 +2770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3220,18 +3211,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>135</v>
@@ -3246,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3347,13 +3338,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="E8" s="44" t="s">
         <v>248</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>249</v>
       </c>
       <c r="F8" s="31">
         <v>16</v>
@@ -3362,7 +3353,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3370,13 +3361,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="E9" s="44" t="s">
         <v>251</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>252</v>
       </c>
       <c r="F9" s="31">
         <v>3</v>
@@ -3394,17 +3385,17 @@
         <v>43</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" s="31">
         <v>3</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3415,17 +3406,17 @@
         <v>44</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F11" s="31">
         <v>3</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3433,33 +3424,24 @@
         <v>7</v>
       </c>
       <c r="C12" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>256</v>
-      </c>
       <c r="E12" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="31">
         <v>4</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="46" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="59"/>
+        <v>258</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3483,31 +3465,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
       <c r="A2" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="55" t="s">
         <v>245</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,21 @@
     <sheet name="彙總傳票" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="267">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1000,14 +1010,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未入帳
-1:已入帳
-2:被沖正(訂正)
-3.沖正(訂正)
-9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=1,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1122,12 +1124,46 @@
     <t>acdtlTitaBatchNoSlipNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>00：單筆傳票  01~99：彙總傳票批號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlipSumNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彙總傳票批號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaHCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常
+1:訂正
+2:被訂正
+3:沖正
+4:被沖正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂正別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未入帳
+1:已入帳
+9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=1,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1233,6 +1269,21 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1326,7 +1377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,6 +1547,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -1834,10 +1891,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
@@ -1849,8 +1906,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1862,10 +1919,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="16" t="s">
         <v>73</v>
       </c>
@@ -1877,10 +1934,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="14"/>
@@ -1888,10 +1945,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="64.8">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="16" t="s">
         <v>42</v>
       </c>
@@ -1901,10 +1958,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="81">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="16" t="s">
         <v>85</v>
       </c>
@@ -1914,10 +1971,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="48.6">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="42" t="s">
         <v>155</v>
       </c>
@@ -1927,10 +1984,10 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="32.4">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="36" t="s">
         <v>236</v>
       </c>
@@ -2202,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="97.2">
+    <row r="22" spans="1:7" ht="64.8">
       <c r="A22" s="20">
         <v>13</v>
       </c>
@@ -2219,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2422,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2496,40 +2553,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="20">
+    <row r="37" spans="1:7" ht="81">
+      <c r="A37" s="31">
         <v>28</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="39" t="s">
+      <c r="B37" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="23">
-        <v>4</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="24"/>
+      <c r="E37" s="31">
+        <v>1</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="5" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="20">
         <v>29</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="24"/>
@@ -2539,16 +2598,16 @@
         <v>30</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>11</v>
       </c>
       <c r="E39" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="24"/>
@@ -2558,16 +2617,16 @@
         <v>31</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E40" s="23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="24"/>
@@ -2577,33 +2636,34 @@
         <v>32</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="20">
-        <v>2</v>
-      </c>
+      <c r="E41" s="23">
+        <v>5</v>
+      </c>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="20">
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="28">
-        <v>6</v>
+      <c r="E42" s="20">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2611,15 +2671,15 @@
         <v>34</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="28">
         <v>6</v>
       </c>
     </row>
@@ -2627,16 +2687,16 @@
       <c r="A44" s="20">
         <v>35</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>36</v>
+      <c r="B44" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="20">
         <v>6</v>
       </c>
     </row>
@@ -2644,17 +2704,17 @@
       <c r="A45" s="20">
         <v>36</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="20">
-        <v>1</v>
+      <c r="B45" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="28">
+        <v>6</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>218</v>
@@ -2665,52 +2725,56 @@
         <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E46" s="20">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="35" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="20">
         <v>38</v>
       </c>
-      <c r="B47" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="31"/>
+      <c r="B47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="57">
+        <v>2</v>
+      </c>
+      <c r="F47" s="57"/>
     </row>
     <row r="48" spans="1:7" s="35" customFormat="1">
       <c r="A48" s="20">
         <v>39</v>
       </c>
-      <c r="B48" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="38" t="s">
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="31">
-        <v>6</v>
-      </c>
-      <c r="F48" s="34"/>
+      <c r="E48" s="20">
+        <v>300</v>
+      </c>
+      <c r="F48" s="20"/>
       <c r="G48" s="31"/>
     </row>
     <row r="49" spans="1:7" s="35" customFormat="1">
@@ -2718,10 +2782,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>94</v>
@@ -2735,10 +2799,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>11</v>
@@ -2748,6 +2812,41 @@
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="31"/>
+    </row>
+    <row r="51" spans="1:7" s="35" customFormat="1">
+      <c r="A51" s="20">
+        <v>42</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="31"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="20">
+        <v>43</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="31">
+        <v>6</v>
+      </c>
+      <c r="F52" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2770,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
@@ -3211,7 +3310,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>128</v>
@@ -3338,13 +3437,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="E8" s="44" t="s">
         <v>247</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>248</v>
       </c>
       <c r="F8" s="31">
         <v>16</v>
@@ -3353,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3361,13 +3460,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="E9" s="44" t="s">
         <v>250</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>251</v>
       </c>
       <c r="F9" s="31">
         <v>3</v>
@@ -3385,17 +3484,17 @@
         <v>43</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10" s="31">
         <v>3</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3406,17 +3505,17 @@
         <v>44</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F11" s="31">
         <v>3</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3424,20 +3523,20 @@
         <v>7</v>
       </c>
       <c r="C12" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>255</v>
-      </c>
       <c r="E12" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F12" s="31">
         <v>4</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3465,31 +3564,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
       <c r="A2" s="55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="55" t="s">
         <v>244</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EEC1E3-FC19-4886-AF55-96E512DB2610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,21 +19,11 @@
     <sheet name="彙總傳票" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="269">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,10 +129,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>業務類別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">借貸別          </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -160,10 +147,6 @@
   <si>
     <t>TitaSupNo</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>入總帳記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TxAmt</t>
@@ -705,10 +688,6 @@
   </si>
   <si>
     <t>AcBookCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳科目記號=1時，由會計銷帳檔處理公用程式自動編號；其他由業務自行編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1066,31 +1045,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>額度編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>撥款序號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BorxNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易內容檔序號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>還款來源 = 4.支票兌現 &amp;&amp; 業務科目 = 利息收入(Ixx)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放款交易內容檔鍵值(與帳務檔不同時)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放款交易內容檔鍵值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1158,11 +1113,55 @@
 9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=1,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>入總帳記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:撥款匯款(含暫收退還匯款) 02-支票繳款(限期票、即期票存入) 09-放款(含抽退票)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1－不過餘額(借貸分由放款及核心系統出帳)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日結餘額檢查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClsChkFlag</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaSlipNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳票號碼</t>
+  </si>
+  <si>
+    <t>格式:F10+民國年+月份(1碼)+日期+3碼序號
+此欄位會由總帳傳票資料傳輸程式回寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-05 智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳科目記號=8核心銷帳碼科目時為銷帳碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -1377,7 +1376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,10 +1404,10 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1421,9 +1420,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1435,9 +1431,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1450,22 +1443,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,24 +1491,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1537,16 +1515,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1554,6 +1529,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1570,8 +1560,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1662,6 +1652,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1697,6 +1704,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1872,131 +1896,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="5.88671875" style="11"/>
+    <col min="1" max="1" width="5.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="5.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="64.8">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="81">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="48.6">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="32.4">
-      <c r="A8" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" s="19" customFormat="1">
+      <c r="A8" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
@@ -2015,838 +2040,865 @@
       <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20">
+      <c r="A10" s="18">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="20">
+        <v>69</v>
+      </c>
+      <c r="E10" s="18">
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20">
+      <c r="A11" s="18">
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="39" t="s">
+      <c r="B11" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>18</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="24" t="s">
-        <v>86</v>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>66</v>
+      <c r="B12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>4</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="20">
+        <v>60</v>
+      </c>
+      <c r="E13" s="18">
         <v>8</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="25" customFormat="1">
-      <c r="A14" s="20">
+    <row r="14" spans="1:7" s="22" customFormat="1">
+      <c r="A14" s="18">
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>4</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20">
+      <c r="A15" s="18">
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>3</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20">
+      <c r="A16" s="18">
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="42">
         <v>11</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="35" customFormat="1">
-      <c r="A17" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="32" customFormat="1">
+      <c r="A17" s="18">
         <v>8</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="28">
+        <v>5</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="31">
-        <v>5</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="5" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20">
+      <c r="A18" s="18">
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>2</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="35" customFormat="1">
-      <c r="A19" s="20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="32" customFormat="1">
+      <c r="A19" s="18">
         <v>10</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="33">
+      <c r="B19" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="30">
         <v>3</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4">
-      <c r="A20" s="20">
+      <c r="A20" s="18">
         <v>11</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="18">
         <v>1</v>
       </c>
-      <c r="G20" s="52" t="s">
-        <v>213</v>
+      <c r="G20" s="45" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20">
+      <c r="A21" s="18">
         <v>12</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>49</v>
+      <c r="B21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="18">
         <v>16</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64.8">
-      <c r="A22" s="20">
+      <c r="A22" s="18">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>34</v>
+        <v>230</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" s="20">
+        <v>234</v>
+      </c>
+      <c r="E22" s="18">
         <v>1</v>
       </c>
-      <c r="G22" s="53" t="s">
-        <v>266</v>
+      <c r="G22" s="24" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20">
+      <c r="A23" s="18">
         <v>14</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>7</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20">
+      <c r="A24" s="18">
         <v>15</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <v>3</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20">
+      <c r="A25" s="18">
         <v>16</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>30</v>
+      <c r="B25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20">
+      <c r="A26" s="18">
         <v>17</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>30</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="35" customFormat="1" ht="32.4">
-      <c r="A27" s="20">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="32" customFormat="1" ht="32.4">
+      <c r="A27" s="18">
         <v>18</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="38" t="s">
+      <c r="B27" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="30">
+        <v>1</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="32" customFormat="1" ht="81">
+      <c r="A28" s="18">
+        <v>19</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="33">
+      <c r="D28" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="30">
         <v>1</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="36" t="s">
+      <c r="F28" s="31"/>
+      <c r="G28" s="34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="32" customFormat="1" ht="113.4">
+      <c r="A29" s="18">
+        <v>20</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="30">
+        <v>1</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="32.4">
+      <c r="A30" s="18">
+        <v>21</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="27">
+        <v>3</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="81">
+      <c r="A31" s="18">
+        <v>22</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="41">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="405">
+      <c r="A32" s="18">
+        <v>23</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="25">
+        <v>3</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="18">
+        <v>24</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="18">
+        <v>25</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="145.80000000000001">
+      <c r="A35" s="18">
+        <v>26</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="25">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="35" customFormat="1" ht="81">
-      <c r="A28" s="20">
-        <v>19</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="33">
+    <row r="36" spans="1:7">
+      <c r="A36" s="18">
+        <v>27</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="81">
+      <c r="A37" s="28">
+        <v>28</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="28">
         <v>1</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4">
-      <c r="A29" s="20">
-        <v>20</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="33">
-        <v>1</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="32.4">
-      <c r="A30" s="20">
-        <v>21</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="30">
-        <v>3</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="81">
-      <c r="A31" s="20">
-        <v>22</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="48">
-        <v>3</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="405">
-      <c r="A32" s="20">
-        <v>23</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="28">
-        <v>3</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="20">
-        <v>24</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="39" t="s">
+      <c r="F37" s="49"/>
+      <c r="G37" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="18">
+        <v>29</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E38" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="20">
-        <v>25</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="145.80000000000001">
-      <c r="A35" s="20">
-        <v>26</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="28">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="20">
-        <v>27</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="20">
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="18">
+        <v>30</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="81">
-      <c r="A37" s="31">
-        <v>28</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="31">
-        <v>1</v>
-      </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="20">
-        <v>29</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="23">
-        <v>4</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="20">
-        <v>30</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="23">
-        <v>6</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="24"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="20">
+      <c r="A40" s="18">
         <v>31</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>69</v>
+      <c r="B40" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="21">
         <v>8</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="24"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="20">
+      <c r="A41" s="18">
         <v>32</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="21">
         <v>5</v>
       </c>
-      <c r="F41" s="21"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20">
+      <c r="A42" s="18">
         <v>33</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="39" t="s">
+      <c r="B42" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="18">
         <v>2</v>
       </c>
+      <c r="G42" s="5" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="20">
+      <c r="A43" s="18">
         <v>34</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="20">
+      <c r="A44" s="18">
         <v>35</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="39" t="s">
+      <c r="B44" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="48.6">
-      <c r="A45" s="20">
+      <c r="A45" s="18">
         <v>36</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="29" t="s">
+      <c r="B45" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="25">
+        <v>6</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="18">
+        <v>37</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>36</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="28">
-        <v>6</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="20">
-        <v>37</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <v>1</v>
       </c>
-      <c r="G46" s="58" t="s">
-        <v>260</v>
+      <c r="G46" s="50" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="20">
+      <c r="A47" s="18">
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>262</v>
+        <v>252</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="49">
         <v>2</v>
       </c>
-      <c r="F47" s="57"/>
-    </row>
-    <row r="48" spans="1:7" s="35" customFormat="1">
-      <c r="A48" s="20">
+      <c r="F47" s="49"/>
+    </row>
+    <row r="48" spans="1:7" s="32" customFormat="1">
+      <c r="A48" s="18">
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <v>300</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="31"/>
-    </row>
-    <row r="49" spans="1:7" s="35" customFormat="1">
-      <c r="A49" s="20">
+      <c r="F48" s="18"/>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="1:8" s="32" customFormat="1" ht="32.4">
+      <c r="A49" s="42">
         <v>40</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="42">
+        <v>12</v>
+      </c>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="32" customFormat="1">
+      <c r="A50" s="18">
+        <v>41</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="E50" s="28"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" spans="1:8" s="32" customFormat="1">
+      <c r="A51" s="18">
+        <v>42</v>
+      </c>
+      <c r="B51" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="C51" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="31"/>
-    </row>
-    <row r="50" spans="1:7" s="35" customFormat="1">
-      <c r="A50" s="20">
-        <v>41</v>
-      </c>
-      <c r="B50" s="38" t="s">
+      <c r="D51" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="28">
+        <v>6</v>
+      </c>
+      <c r="F51" s="31"/>
+      <c r="G51" s="28"/>
+    </row>
+    <row r="52" spans="1:8" s="32" customFormat="1">
+      <c r="A52" s="18">
+        <v>43</v>
+      </c>
+      <c r="B52" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C52" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D52" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="28"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="18">
+        <v>44</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E53" s="28">
         <v>6</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="31"/>
-    </row>
-    <row r="51" spans="1:7" s="35" customFormat="1">
-      <c r="A51" s="20">
-        <v>42</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="31"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="20">
-        <v>43</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="31">
-        <v>6</v>
-      </c>
-      <c r="F52" s="34"/>
+      <c r="F53" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2866,7 +2918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2895,436 +2947,436 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.4">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32.4">
       <c r="A23" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32.4">
       <c r="A24" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32.4">
       <c r="A25" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32.4">
       <c r="A26" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="32.4">
       <c r="A27" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32.4">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="32.4">
       <c r="A30" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="32.4">
       <c r="A31" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32.4">
       <c r="A32" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="32.4">
       <c r="A33" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="32.4">
       <c r="A34" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3335,11 +3387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3351,17 +3403,17 @@
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" customWidth="1"/>
-    <col min="8" max="8" width="42" customWidth="1"/>
+    <col min="8" max="8" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3387,156 +3439,114 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="45" customFormat="1" ht="162">
-      <c r="A6" s="43"/>
-      <c r="B6" s="31">
+    <row r="6" spans="1:8" ht="162">
+      <c r="A6" s="32"/>
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>1</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="36" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="64.8">
+      <c r="A7" s="32"/>
+      <c r="B7" s="28">
+        <v>2</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="45" customFormat="1" ht="64.8">
-      <c r="A7" s="43"/>
-      <c r="B7" s="31">
+      <c r="D7" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32.4">
+      <c r="A8" s="32"/>
+      <c r="B8" s="28">
+        <v>3</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="28">
+        <v>16</v>
+      </c>
+      <c r="G8" s="28">
         <v>2</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="31">
+      <c r="H8" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="28">
+        <v>4</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="28">
+        <v>3</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="28">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="28">
         <v>1</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="45" customFormat="1" ht="32.4">
-      <c r="A8" s="43"/>
-      <c r="B8" s="31">
-        <v>3</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="31">
-        <v>16</v>
-      </c>
-      <c r="G8" s="31">
-        <v>2</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="31">
-        <v>4</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="31">
-        <v>3</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="46" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="31">
-        <v>5</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="31">
-        <v>3</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="46" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="31">
-        <v>6</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="31">
-        <v>3</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="46" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="31">
-        <v>7</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="31">
-        <v>4</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="46" t="s">
-        <v>257</v>
+      <c r="G10" s="28"/>
+      <c r="H10" s="33" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3556,39 +3566,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="55"/>
+    <col min="1" max="1" width="16" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32.4">
+      <c r="A2" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="47" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="32.4">
-      <c r="A2" s="55" t="s">
+      <c r="B4" s="47" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EEC1E3-FC19-4886-AF55-96E512DB2610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="271">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -244,10 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">銷帳科目記號    </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DscptCode</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1157,11 +1152,23 @@
     <t>銷帳科目記號=8核心銷帳碼科目時為銷帳碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>未用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DscptCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6201其他傳票輸入、L618D 提存入帳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -1560,8 +1567,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1652,23 +1659,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1704,23 +1694,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1896,11 +1869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -1921,10 +1894,10 @@
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -1949,7 +1922,7 @@
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>13</v>
@@ -1988,7 +1961,7 @@
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="9"/>
@@ -1997,11 +1970,11 @@
     </row>
     <row r="7" spans="1:7" ht="48.6">
       <c r="A7" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="9"/>
@@ -2010,11 +1983,11 @@
     </row>
     <row r="8" spans="1:7" ht="32.4">
       <c r="A8" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="9"/>
@@ -2049,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E10" s="18">
         <v>8</v>
@@ -2068,10 +2041,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>11</v>
@@ -2081,7 +2054,7 @@
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2089,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -2108,13 +2081,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="18">
         <v>8</v>
@@ -2130,7 +2103,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>11</v>
@@ -2146,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -2165,10 +2138,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>11</v>
@@ -2178,7 +2151,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="32" customFormat="1">
@@ -2186,20 +2159,20 @@
         <v>8</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>73</v>
       </c>
       <c r="E17" s="28">
         <v>5</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2207,7 +2180,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>46</v>
@@ -2220,7 +2193,7 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="32" customFormat="1">
@@ -2228,20 +2201,20 @@
         <v>10</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="30">
         <v>3</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4">
@@ -2249,7 +2222,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>28</v>
@@ -2261,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2289,19 +2262,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="18">
         <v>1</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2309,7 +2282,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>15</v>
@@ -2364,7 +2337,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>17</v>
@@ -2377,7 +2350,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="32" customFormat="1" ht="32.4">
@@ -2385,10 +2358,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>55</v>
@@ -2398,7 +2371,7 @@
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="32" customFormat="1" ht="81">
@@ -2419,7 +2392,7 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" ht="113.4">
@@ -2427,10 +2400,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>81</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>26</v>
@@ -2440,7 +2413,7 @@
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.4">
@@ -2448,7 +2421,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>51</v>
@@ -2463,7 +2436,7 @@
         <v>44</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81">
@@ -2471,10 +2444,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>43</v>
@@ -2484,7 +2457,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="405">
@@ -2504,7 +2477,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2512,7 +2485,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>52</v>
@@ -2522,6 +2495,9 @@
       </c>
       <c r="E33" s="25">
         <v>4</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2540,16 +2516,19 @@
       <c r="E34" s="18">
         <v>80</v>
       </c>
+      <c r="G34" s="23" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="145.80000000000001">
       <c r="A35" s="18">
         <v>26</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>229</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>45</v>
@@ -2558,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2566,7 +2545,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>38</v>
@@ -2583,10 +2562,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>11</v>
@@ -2596,7 +2575,7 @@
       </c>
       <c r="F37" s="49"/>
       <c r="G37" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2604,10 +2583,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="36" t="s">
         <v>11</v>
@@ -2623,10 +2602,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>11</v>
@@ -2642,10 +2621,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>14</v>
@@ -2661,7 +2640,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>19</v>
@@ -2682,7 +2661,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>11</v>
@@ -2691,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2716,10 +2695,10 @@
         <v>35</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>11</v>
@@ -2745,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2765,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2773,10 +2752,10 @@
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>252</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>253</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
@@ -2791,10 +2770,10 @@
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>11</v>
@@ -2810,10 +2789,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="52" t="s">
         <v>264</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>265</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>11</v>
@@ -2823,10 +2802,10 @@
       </c>
       <c r="F49" s="53"/>
       <c r="G49" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>266</v>
-      </c>
-      <c r="H49" s="55" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="32" customFormat="1">
@@ -2834,13 +2813,13 @@
         <v>41</v>
       </c>
       <c r="B50" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="D50" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>92</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="31"/>
@@ -2851,10 +2830,10 @@
         <v>42</v>
       </c>
       <c r="B51" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>94</v>
       </c>
       <c r="D51" s="35" t="s">
         <v>11</v>
@@ -2870,13 +2849,13 @@
         <v>43</v>
       </c>
       <c r="B52" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>96</v>
-      </c>
       <c r="D52" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="31"/>
@@ -2887,10 +2866,10 @@
         <v>44</v>
       </c>
       <c r="B53" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="35" t="s">
         <v>97</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>98</v>
       </c>
       <c r="D53" s="35" t="s">
         <v>11</v>
@@ -2918,12 +2897,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2947,437 +2926,440 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.4">
       <c r="A22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32.4">
       <c r="A23" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32.4">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32.4">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32.4">
       <c r="A26" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="32.4">
       <c r="A27" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32.4">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="32.4">
       <c r="A30" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="32.4">
       <c r="A31" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32.4">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="32.4">
       <c r="A33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="32.4">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3387,11 +3369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3408,12 +3390,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3445,10 +3427,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>130</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>131</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>11</v>
@@ -3458,7 +3440,7 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="64.8">
@@ -3467,20 +3449,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="37" t="s">
         <v>171</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>172</v>
       </c>
       <c r="F7" s="28">
         <v>1</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.4">
@@ -3489,13 +3471,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="29" t="s">
         <v>243</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>244</v>
       </c>
       <c r="F8" s="28">
         <v>16</v>
@@ -3504,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3512,20 +3494,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>247</v>
       </c>
       <c r="F9" s="28">
         <v>3</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3533,20 +3515,20 @@
         <v>5</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="28">
         <v>1</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3557,7 +3539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3574,31 +3556,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
       <c r="A2" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>240</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8688" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="270">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -684,10 +684,6 @@
   <si>
     <t>AcBookCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RenewCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>展期記號</t>
@@ -1025,10 +1021,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RvAcctCode</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1121,18 +1113,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1－不過餘額(借貸分由放款及核心系統出帳)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日結餘額檢查</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClsChkFlag</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MediaSlipNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1163,6 +1143,22 @@
   <si>
     <t>L6201其他傳票輸入、L618D 提存入帳</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenewCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新程式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDetailCom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvAcctCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1383,7 +1379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1563,6 +1559,12 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1872,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -1987,7 +1989,7 @@
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="9"/>
@@ -2234,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2262,19 +2264,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22" s="18">
         <v>1</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2282,7 +2284,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>15</v>
@@ -2350,7 +2352,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="32" customFormat="1" ht="32.4">
@@ -2371,7 +2373,7 @@
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="32" customFormat="1" ht="81">
@@ -2392,7 +2394,7 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" ht="113.4">
@@ -2413,7 +2415,7 @@
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.4">
@@ -2436,7 +2438,7 @@
         <v>44</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81">
@@ -2444,10 +2446,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>43</v>
@@ -2457,7 +2459,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="405">
@@ -2477,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2485,7 +2487,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>52</v>
@@ -2497,7 +2499,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2517,7 +2519,7 @@
         <v>80</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="145.80000000000001">
@@ -2525,10 +2527,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>45</v>
@@ -2537,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2562,10 +2564,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>255</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>11</v>
@@ -2575,7 +2577,7 @@
       </c>
       <c r="F37" s="49"/>
       <c r="G37" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2661,7 +2663,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>11</v>
@@ -2670,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2724,7 +2726,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2744,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2752,10 +2754,10 @@
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
@@ -2789,10 +2791,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>11</v>
@@ -2802,10 +2804,10 @@
       </c>
       <c r="F49" s="53"/>
       <c r="G49" s="54" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H49" s="55" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="32" customFormat="1">
@@ -2929,7 +2931,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>149</v>
@@ -2940,7 +2942,7 @@
         <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>158</v>
@@ -3083,7 +3085,7 @@
         <v>136</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>142</v>
@@ -3116,7 +3118,7 @@
         <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>163</v>
@@ -3135,10 +3137,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>119</v>
@@ -3146,10 +3148,10 @@
     </row>
     <row r="22" spans="1:3" ht="32.4">
       <c r="A22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>120</v>
@@ -3157,10 +3159,10 @@
     </row>
     <row r="23" spans="1:3" ht="32.4">
       <c r="A23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>107</v>
@@ -3168,10 +3170,10 @@
     </row>
     <row r="24" spans="1:3" ht="32.4">
       <c r="A24" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>108</v>
@@ -3179,10 +3181,10 @@
     </row>
     <row r="25" spans="1:3" ht="32.4">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>109</v>
@@ -3190,10 +3192,10 @@
     </row>
     <row r="26" spans="1:3" ht="32.4">
       <c r="A26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>110</v>
@@ -3201,10 +3203,10 @@
     </row>
     <row r="27" spans="1:3" ht="32.4">
       <c r="A27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>111</v>
@@ -3212,10 +3214,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>119</v>
@@ -3223,10 +3225,10 @@
     </row>
     <row r="29" spans="1:3" ht="32.4">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>120</v>
@@ -3234,10 +3236,10 @@
     </row>
     <row r="30" spans="1:3" ht="32.4">
       <c r="A30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>107</v>
@@ -3245,10 +3247,10 @@
     </row>
     <row r="31" spans="1:3" ht="32.4">
       <c r="A31" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>108</v>
@@ -3256,10 +3258,10 @@
     </row>
     <row r="32" spans="1:3" ht="32.4">
       <c r="A32" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>109</v>
@@ -3267,10 +3269,10 @@
     </row>
     <row r="33" spans="1:3" ht="32.4">
       <c r="A33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>110</v>
@@ -3278,10 +3280,10 @@
     </row>
     <row r="34" spans="1:3" ht="32.4">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>111</v>
@@ -3289,10 +3291,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>158</v>
@@ -3300,18 +3302,18 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>149</v>
@@ -3319,10 +3321,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>149</v>
@@ -3330,10 +3332,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>149</v>
@@ -3341,18 +3343,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>132</v>
@@ -3370,10 +3372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3386,19 +3388,20 @@
     <col min="6" max="6" width="7.44140625" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" customWidth="1"/>
     <col min="8" max="8" width="46.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -3420,8 +3423,11 @@
       <c r="H5" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="162">
+      <c r="I5" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="162">
       <c r="A6" s="32"/>
       <c r="B6" s="28">
         <v>1</v>
@@ -3442,42 +3448,48 @@
       <c r="H6" s="33" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="64.8">
+      <c r="I6" s="60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="64.8">
       <c r="A7" s="32"/>
       <c r="B7" s="28">
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="37" t="s">
         <v>170</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>171</v>
       </c>
       <c r="F7" s="28">
         <v>1</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="32.4">
+        <v>171</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.4">
       <c r="A8" s="32"/>
       <c r="B8" s="28">
         <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="29" t="s">
         <v>242</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>243</v>
       </c>
       <c r="F8" s="28">
         <v>16</v>
@@ -3486,49 +3498,34 @@
         <v>2</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>245</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="28">
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>244</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>246</v>
       </c>
       <c r="F9" s="28">
         <v>3</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="28">
-        <v>5</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="28">
-        <v>1</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="33" t="s">
-        <v>260</v>
+        <v>206</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3556,31 +3553,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
       <c r="A2" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>239</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8688" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
     <sheet name="彙總傳票" sheetId="4" r:id="rId4"/>
+    <sheet name="訂正處理" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="325">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1159,6 +1160,224 @@
   <si>
     <t>RvAcctCode</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntAc 入總帳記號 0:未入帳 1:已入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcHcode </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分錄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntAc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaHCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新會計相關檔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.經辦登錄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.經辦登錄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生正向帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:未入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.經辦訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-沖正帳務(訂正、不入帳)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新正向帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:未入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:被訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生反向帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:未入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.經辦修正 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1).訂正 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.修正刪除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-刪除帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除正向帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2).登錄</t>
+  </si>
+  <si>
+    <t>1.經辦登錄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生正向帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.主管放行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.主管放行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:已入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.放行訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6.已放行訂正、經辦修正 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1).訂正 </t>
+  </si>
+  <si>
+    <t>2.經辦訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:被訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.已放行訂正、經辦訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:兩段式已放行訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.放行訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-刪除帳務</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcHcode 帳務訂正記號 0-正常 1-刪除帳務2-沖正帳務(沖正、要入帳) 3-沖正帳務(訂正、不入帳)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaHCode 訂正別 0:正常 1:訂正 2:被訂正 3:沖正 4:被沖正5:兩段式已放行訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1379,7 +1598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1548,6 +1767,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1560,11 +1785,8 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1891,10 +2113,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="7" t="s">
         <v>75</v>
       </c>
@@ -1906,8 +2128,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1919,10 +2141,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="15" t="s">
         <v>70</v>
       </c>
@@ -1934,10 +2156,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="9"/>
@@ -1945,10 +2167,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="64.8">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="15" t="s">
         <v>40</v>
       </c>
@@ -1958,10 +2180,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="81">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="15" t="s">
         <v>82</v>
       </c>
@@ -1971,10 +2193,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="48.6">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="39" t="s">
         <v>152</v>
       </c>
@@ -1984,10 +2206,10 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="32.4">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="33" t="s">
         <v>231</v>
       </c>
@@ -3374,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3388,7 +3610,7 @@
     <col min="6" max="6" width="7.44140625" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" customWidth="1"/>
     <col min="8" max="8" width="46.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="61" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3448,7 +3670,7 @@
       <c r="H6" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="56" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3473,7 +3695,7 @@
       <c r="H7" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="56" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3500,7 +3722,7 @@
       <c r="H8" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="56" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3524,7 +3746,7 @@
       <c r="H9" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="56" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3584,4 +3806,354 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="62"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="62"/>
+      <c r="E8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="62"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="62"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.8" customHeight="1">
+      <c r="C13" s="62"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" t="s">
+        <v>301</v>
+      </c>
+      <c r="H14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="62"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="C17" s="62"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" s="62"/>
+      <c r="E19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="C20" s="62"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G21" t="s">
+        <v>301</v>
+      </c>
+      <c r="H21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="62"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="62"/>
+      <c r="E24" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" t="s">
+        <v>313</v>
+      </c>
+      <c r="H24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="62"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="62"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="62"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C6C5AE-6ACA-4354-BC16-DA6845B614E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -912,10 +913,6 @@
   </si>
   <si>
     <t>findL4701First</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode = ,AND CustNo = ,AND RvNo = ,AND AcDate =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1379,11 +1376,15 @@
     <t>x</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">AcctCode = ,AND CustNo = ,AND RvNo = ,AND AcDate = ,AND DbCr = ,AND TitaHCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -1598,7 +1599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1767,12 +1768,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1784,15 +1785,12 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1883,6 +1881,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1918,6 +1933,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2093,11 +2125,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -2211,7 +2243,7 @@
       </c>
       <c r="B8" s="60"/>
       <c r="C8" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="9"/>
@@ -2486,19 +2518,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" s="18">
         <v>1</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2574,7 +2606,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="32" customFormat="1" ht="32.4">
@@ -2616,7 +2648,7 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" ht="113.4">
@@ -2660,7 +2692,7 @@
         <v>44</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81">
@@ -2701,7 +2733,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2709,7 +2741,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>52</v>
@@ -2721,7 +2753,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2741,7 +2773,7 @@
         <v>80</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="145.80000000000001">
@@ -2749,10 +2781,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>45</v>
@@ -2786,10 +2818,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>11</v>
@@ -2799,7 +2831,7 @@
       </c>
       <c r="F37" s="49"/>
       <c r="G37" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2885,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>11</v>
@@ -2894,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2968,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2976,10 +3008,10 @@
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>249</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>250</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
@@ -3013,10 +3045,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="52" t="s">
         <v>258</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>259</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>11</v>
@@ -3026,10 +3058,10 @@
       </c>
       <c r="F49" s="53"/>
       <c r="G49" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>260</v>
-      </c>
-      <c r="H49" s="55" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="32" customFormat="1">
@@ -3121,12 +3153,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3527,15 +3559,15 @@
         <v>216</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>149</v>
@@ -3543,10 +3575,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>149</v>
@@ -3554,10 +3586,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>149</v>
@@ -3565,18 +3597,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>132</v>
@@ -3593,7 +3625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3610,7 +3642,7 @@
     <col min="6" max="6" width="7.44140625" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" customWidth="1"/>
     <col min="8" max="8" width="46.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="57" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3646,7 +3678,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="162">
@@ -3670,8 +3702,8 @@
       <c r="H6" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="56" t="s">
-        <v>268</v>
+      <c r="I6" s="28" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64.8">
@@ -3680,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>169</v>
@@ -3695,8 +3727,8 @@
       <c r="H7" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="56" t="s">
-        <v>268</v>
+      <c r="I7" s="28" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.4">
@@ -3705,13 +3737,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="29" t="s">
         <v>241</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>242</v>
       </c>
       <c r="F8" s="28">
         <v>16</v>
@@ -3720,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>268</v>
+        <v>244</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3731,13 +3763,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>243</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>244</v>
       </c>
       <c r="F9" s="28">
         <v>3</v>
@@ -3746,8 +3778,8 @@
       <c r="H9" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="I9" s="56" t="s">
-        <v>268</v>
+      <c r="I9" s="28" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3758,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3775,31 +3807,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="32.4">
       <c r="A2" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>238</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3809,10 +3841,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -3830,326 +3862,326 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" customHeight="1">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
         <v>271</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>272</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>273</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>274</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>275</v>
-      </c>
-      <c r="H4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="D5" t="s">
         <v>278</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>279</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>280</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" t="s">
         <v>281</v>
       </c>
-      <c r="G5" t="s">
-        <v>317</v>
-      </c>
-      <c r="H5" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="62"/>
+      <c r="C6" s="57"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="62" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>284</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>285</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>286</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="57"/>
+      <c r="E8" t="s">
         <v>287</v>
       </c>
-      <c r="H7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="62"/>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>288</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>289</v>
       </c>
-      <c r="G8" t="s">
-        <v>290</v>
-      </c>
       <c r="H8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="C9" s="62"/>
+      <c r="C9" s="57"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" t="s">
         <v>291</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="D10" t="s">
         <v>293</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>294</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>295</v>
       </c>
-      <c r="H10" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="62"/>
+      <c r="C11" s="57"/>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="D12" t="s">
         <v>298</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>299</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" t="s">
         <v>300</v>
       </c>
-      <c r="F12" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" t="s">
-        <v>301</v>
-      </c>
       <c r="H12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.8" customHeight="1">
-      <c r="C13" s="62"/>
+      <c r="C13" s="57"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="D14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" t="s">
         <v>303</v>
       </c>
-      <c r="D14" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" t="s">
-        <v>304</v>
-      </c>
       <c r="G14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="62"/>
+        <v>304</v>
+      </c>
+      <c r="C15" s="57"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F16" t="s">
-        <v>307</v>
-      </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="C17" s="62"/>
+      <c r="C17" s="57"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" t="s">
         <v>308</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="D18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" t="s">
         <v>310</v>
       </c>
-      <c r="D18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" t="s">
-        <v>285</v>
-      </c>
-      <c r="F18" t="s">
-        <v>289</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" s="57"/>
+      <c r="E19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" t="s">
+        <v>312</v>
+      </c>
+      <c r="H19" t="s">
         <v>311</v>
       </c>
-      <c r="H18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="C19" s="62"/>
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" t="s">
-        <v>313</v>
-      </c>
-      <c r="H19" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="C20" s="62"/>
+      <c r="C20" s="57"/>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="62" t="s">
-        <v>298</v>
-      </c>
       <c r="D21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" t="s">
         <v>300</v>
       </c>
-      <c r="F21" t="s">
-        <v>289</v>
-      </c>
-      <c r="G21" t="s">
-        <v>301</v>
-      </c>
       <c r="H21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="C22" s="62"/>
+      <c r="C22" s="57"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" t="s">
         <v>310</v>
       </c>
-      <c r="D23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" t="s">
-        <v>285</v>
-      </c>
-      <c r="F23" t="s">
-        <v>289</v>
-      </c>
-      <c r="G23" t="s">
-        <v>311</v>
-      </c>
       <c r="H23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="C24" s="62"/>
+      <c r="C24" s="57"/>
       <c r="E24" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" t="s">
         <v>288</v>
       </c>
-      <c r="F24" t="s">
-        <v>289</v>
-      </c>
       <c r="G24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="C25" s="62"/>
+      <c r="C25" s="57"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="C26" s="62"/>
+      <c r="C26" s="57"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="C27" s="62"/>
+      <c r="C27" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C6C5AE-6ACA-4354-BC16-DA6845B614E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBEB19E-2D76-4893-82D8-8AD240CC7FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="327">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1378,6 +1378,14 @@
   </si>
   <si>
     <t xml:space="preserve">AcctCode = ,AND CustNo = ,AND RvNo = ,AND AcDate = ,AND DbCr = ,AND TitaHCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findSlipBatNoEntAc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate = ,AND SlipBatNo = ,AND EntAc =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1806,9 +1814,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1846,9 +1854,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1881,26 +1889,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1933,26 +1924,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3158,7 +3132,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3615,7 +3589,12 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="B42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBEB19E-2D76-4893-82D8-8AD240CC7FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
-    <sheet name="彙總傳票" sheetId="4" r:id="rId4"/>
-    <sheet name="訂正處理" sheetId="5" r:id="rId5"/>
+    <sheet name="訂正處理" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="325">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -979,35 +977,6 @@
   <si>
     <t>DECIMAL</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaBatchNo(5:2)+TitaBatchSeq(6) = TitaTxtNo 時
-join BatxDetail (AcDate+TitaBatchNo+TitaBatchSeq)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatxDetail.RepayCode in (01,02,03,04)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳票號碼9xxxx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>條件一</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>條件二</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>條件三</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>彙總傳票分類加總方式同[總傳票明細表]</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>StampTaxFreeAmt</t>
@@ -1073,10 +1042,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>彙總傳票批號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaHCode</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1093,21 +1058,299 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>入總帳記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:撥款匯款(含暫收退還匯款) 02-支票繳款(限期票、即期票存入) 09-放款(含抽退票)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-05 智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳科目記號=8核心銷帳碼科目時為銷帳碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DscptCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6201其他傳票輸入、L618D 提存入帳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenewCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新程式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDetailCom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvAcctCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntAc 入總帳記號 0:未入帳 1:已入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcHcode </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分錄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntAc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaHCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新會計相關檔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.經辦登錄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.經辦登錄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生正向帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:未入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.經辦訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-沖正帳務(訂正、不入帳)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新正向帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:未入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:被訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生反向帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:未入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.經辦修正 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1).訂正 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.修正刪除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-刪除帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除正向帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2).登錄</t>
+  </si>
+  <si>
+    <t>1.經辦登錄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生正向帳務</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.主管放行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.主管放行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:已入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.放行訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未入帳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6.已放行訂正、經辦修正 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1).訂正 </t>
+  </si>
+  <si>
+    <t>2.經辦訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:被訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.已放行訂正、經辦訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:兩段式已放行訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.放行訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-刪除帳務</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcHcode 帳務訂正記號 0-正常 1-刪除帳務2-沖正帳務(沖正、要入帳) 3-沖正帳務(訂正、不入帳)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaHCode 訂正別 0:正常 1:訂正 2:被訂正 3:沖正 4:被沖正5:兩段式已放行訂正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcctCode = ,AND CustNo = ,AND RvNo = ,AND AcDate = ,AND DbCr = ,AND TitaHCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findSlipBatNoEntAc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate = ,AND SlipBatNo = ,AND EntAc =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>0:未入帳
 1:已入帳
-9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=1,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入總帳記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>業務類別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01:撥款匯款(含暫收退還匯款) 02-支票繳款(限期票、即期票存入) 09-放款(含抽退票)</t>
+9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=8,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlipNoSum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳票號碼(彙總)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>9nnnnn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1115,284 +1358,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>傳票號碼</t>
+    <t>L9130Report2022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>總帳傳票號碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彙總傳票號碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>格式:F10+民國年+月份(1碼)+日期+3碼序號
-此欄位會由總帳傳票資料傳輸程式回寫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-01-05 智偉新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳科目記號=8核心銷帳碼科目時為銷帳碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DscptCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>L6201其他傳票輸入、L618D 提存入帳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RenewCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新程式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDetailCom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RvAcctCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntAc 入總帳記號 0:未入帳 1:已入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>pattern</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcHcode </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分錄</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntAc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaHCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新會計相關檔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.經辦登錄</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.經辦登錄</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>產生正向帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0:未入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.經辦訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-沖正帳務(訂正、不入帳)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新正向帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0:未入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:被訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>產生反向帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0:未入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.經辦修正 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1).訂正 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.修正刪除</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-刪除帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除正向帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2).登錄</t>
-  </si>
-  <si>
-    <t>1.經辦登錄</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>產生正向帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.主管放行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.主管放行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:已入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.放行訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:未入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6.已放行訂正、經辦修正 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1).訂正 </t>
-  </si>
-  <si>
-    <t>2.經辦訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:被訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.已放行訂正、經辦訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:兩段式已放行訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.放行訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-刪除帳務</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcHcode 帳務訂正記號 0-正常 1-刪除帳務2-沖正帳務(沖正、要入帳) 3-沖正帳務(訂正、不入帳)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaHCode 訂正別 0:正常 1:訂正 2:被訂正 3:沖正 4:被沖正5:兩段式已放行訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcctCode = ,AND CustNo = ,AND RvNo = ,AND AcDate = ,AND DbCr = ,AND TitaHCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findSlipBatNoEntAc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate = ,AND SlipBatNo = ,AND EntAc =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+由產生SlipMedia2022(總帳傳票媒體檔)L9130Report2022寫入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由產生SlipMedia2022(總帳傳票媒體檔)L9130Report2022寫入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -1515,7 +1505,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1525,12 +1515,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,7 +1591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1745,15 +1729,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1797,8 +1772,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1814,9 +1789,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1854,9 +1829,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1891,7 +1866,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1926,7 +1901,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2099,11 +2074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -2119,10 +2094,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="7" t="s">
         <v>75</v>
       </c>
@@ -2134,8 +2109,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2147,10 +2122,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="15" t="s">
         <v>70</v>
       </c>
@@ -2162,10 +2137,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="9"/>
@@ -2173,10 +2148,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="64.8">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="15" t="s">
         <v>40</v>
       </c>
@@ -2186,10 +2161,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="81">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="15" t="s">
         <v>82</v>
       </c>
@@ -2199,10 +2174,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="48.6">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="39" t="s">
         <v>152</v>
       </c>
@@ -2212,10 +2187,10 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="32.4">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="33" t="s">
         <v>230</v>
       </c>
@@ -2495,7 +2470,7 @@
         <v>227</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>231</v>
@@ -2504,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2580,7 +2555,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="32" customFormat="1" ht="32.4">
@@ -2707,7 +2682,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2715,7 +2690,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>52</v>
@@ -2727,7 +2702,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2747,7 +2722,7 @@
         <v>80</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="145.80000000000001">
@@ -2792,10 +2767,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>11</v>
@@ -2803,9 +2778,9 @@
       <c r="E37" s="28">
         <v>1</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2891,7 +2866,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>11</v>
@@ -2900,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2973,8 +2948,8 @@
       <c r="E46" s="18">
         <v>1</v>
       </c>
-      <c r="G46" s="50" t="s">
-        <v>247</v>
+      <c r="G46" s="47" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2982,18 +2957,21 @@
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="49">
-        <v>2</v>
-      </c>
-      <c r="F47" s="49"/>
+      <c r="E47" s="46">
+        <v>6</v>
+      </c>
+      <c r="F47" s="46"/>
+      <c r="G47" s="23" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="48" spans="1:7" s="32" customFormat="1">
       <c r="A48" s="18">
@@ -3018,24 +2996,24 @@
       <c r="A49" s="42">
         <v>40</v>
       </c>
-      <c r="B49" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="D49" s="51" t="s">
+      <c r="B49" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="D49" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="42">
         <v>12</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="H49" s="55" t="s">
-        <v>260</v>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="H49" s="52" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="32" customFormat="1">
@@ -3127,12 +3105,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3533,7 +3511,7 @@
         <v>216</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3571,7 +3549,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>125</v>
@@ -3590,10 +3568,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3604,11 +3582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3621,7 +3599,7 @@
     <col min="6" max="6" width="7.44140625" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" customWidth="1"/>
     <col min="8" max="8" width="46.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3657,7 +3635,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="162">
@@ -3682,7 +3660,7 @@
         <v>167</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64.8">
@@ -3691,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>169</v>
@@ -3707,7 +3685,7 @@
         <v>171</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.4">
@@ -3716,13 +3694,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F8" s="28">
         <v>16</v>
@@ -3731,10 +3709,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3742,13 +3720,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F9" s="28">
         <v>3</v>
@@ -3758,7 +3736,32 @@
         <v>206</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>267</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="32"/>
+      <c r="B10" s="28">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="28">
+        <v>6</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3769,58 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="47"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="32.4">
-      <c r="A2" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>238</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3841,326 +3793,326 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" customHeight="1">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="57" t="s">
-        <v>270</v>
+      <c r="C4" s="54" t="s">
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H4" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>277</v>
+        <v>264</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="57"/>
+      <c r="C6" s="54"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>282</v>
+        <v>270</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="G7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="57"/>
+      <c r="C8" s="54"/>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G8" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="H8" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="C9" s="57"/>
+      <c r="C9" s="54"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>292</v>
+        <v>279</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>280</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H10" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="57"/>
+      <c r="C11" s="54"/>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>297</v>
+        <v>284</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>285</v>
       </c>
       <c r="D12" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" t="s">
         <v>288</v>
       </c>
-      <c r="G12" t="s">
-        <v>300</v>
-      </c>
       <c r="H12" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.8" customHeight="1">
-      <c r="C13" s="57"/>
+      <c r="C13" s="54"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>302</v>
+        <v>289</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F14" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="G14" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H14" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="57"/>
+        <v>292</v>
+      </c>
+      <c r="C15" s="54"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>317</v>
-      </c>
       <c r="D16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E16" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H16" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="C17" s="57"/>
+      <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>309</v>
+        <v>296</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>297</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F18" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G18" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="H18" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="C19" s="57"/>
+      <c r="C19" s="54"/>
       <c r="E19" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F19" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G19" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="C20" s="57"/>
+      <c r="C20" s="54"/>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>296</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>297</v>
+        <v>284</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F21" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" t="s">
         <v>288</v>
       </c>
-      <c r="G21" t="s">
-        <v>300</v>
-      </c>
       <c r="H21" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="C22" s="57"/>
+      <c r="C22" s="54"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>314</v>
-      </c>
-      <c r="C23" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E23" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" t="s">
+        <v>276</v>
+      </c>
+      <c r="G23" t="s">
+        <v>298</v>
+      </c>
+      <c r="H23" t="s">
         <v>309</v>
       </c>
-      <c r="D23" t="s">
-        <v>283</v>
-      </c>
-      <c r="E23" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" t="s">
-        <v>310</v>
-      </c>
-      <c r="H23" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="C24" s="57"/>
+      <c r="C24" s="54"/>
       <c r="E24" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F24" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G24" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H24" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="C25" s="57"/>
+      <c r="C25" s="54"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="C26" s="57"/>
+      <c r="C26" s="54"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="C27" s="57"/>
+      <c r="C27" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="325">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TitaBatchNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>傳票號碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -405,10 +401,6 @@
   </si>
   <si>
     <t>jason格式紀錄欄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JsonFields</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1342,23 +1334,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SlipNoSum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳票號碼(彙總)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>9nnnnn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MediaSlipNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L9130Report2022</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1375,7 +1355,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>由產生SlipMedia2022(總帳傳票媒體檔)L9130Report2022寫入</t>
+    <t>TitaBatchNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonFields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReconCode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>對帳類別</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>整批入帳時寫入(不含訂正及訂正後再入)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整批入帳時寫入彙總傳票批號(01~99)，L9130Report2022產生SlipMedia2022(總帳傳票媒體檔)時更新為9NNNNN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2078,7 +2078,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -2088,7 +2088,7 @@
     <col min="3" max="3" width="23.77734375" style="23" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.33203125" style="23" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="5.88671875" style="11"/>
   </cols>
@@ -2099,10 +2099,10 @@
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>13</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="9"/>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B6" s="56"/>
       <c r="C6" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="9"/>
@@ -2175,11 +2175,11 @@
     </row>
     <row r="7" spans="1:7" ht="48.6">
       <c r="A7" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" s="57"/>
       <c r="C7" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="9"/>
@@ -2188,11 +2188,11 @@
     </row>
     <row r="8" spans="1:7" ht="32.4">
       <c r="A8" s="55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="9"/>
@@ -2227,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E10" s="18">
         <v>8</v>
@@ -2246,10 +2246,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>11</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2267,10 +2267,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -2286,13 +2286,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="18">
         <v>8</v>
@@ -2305,10 +2305,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>11</v>
@@ -2324,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -2343,10 +2343,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>11</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="32" customFormat="1">
@@ -2364,20 +2364,20 @@
         <v>8</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>71</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>72</v>
       </c>
       <c r="E17" s="28">
         <v>5</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2385,10 +2385,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>11</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="32" customFormat="1">
@@ -2406,20 +2406,20 @@
         <v>10</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="30">
         <v>3</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4">
@@ -2427,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>28</v>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2450,7 +2450,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -2467,19 +2467,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E22" s="18">
         <v>1</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2487,7 +2487,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>15</v>
@@ -2506,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>16</v>
@@ -2525,7 +2525,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>29</v>
@@ -2542,7 +2542,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>17</v>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="32" customFormat="1" ht="32.4">
@@ -2563,20 +2563,20 @@
         <v>18</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="30">
         <v>1</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="32" customFormat="1" ht="81">
@@ -2584,20 +2584,20 @@
         <v>19</v>
       </c>
       <c r="B28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>57</v>
-      </c>
       <c r="D28" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="30">
         <v>1</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" ht="113.4">
@@ -2605,10 +2605,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>80</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>26</v>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.4">
@@ -2626,22 +2626,22 @@
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="27">
         <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81">
@@ -2649,20 +2649,20 @@
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="41">
         <v>3</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="405">
@@ -2670,19 +2670,19 @@
         <v>23</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="D32" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="25">
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2690,10 +2690,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>11</v>
@@ -2702,7 +2702,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2716,13 +2716,13 @@
         <v>18</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="18">
         <v>80</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="145.80000000000001">
@@ -2730,19 +2730,19 @@
         <v>26</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="25">
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2750,13 +2750,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="18">
         <v>6</v>
@@ -2767,10 +2767,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>242</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>244</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>11</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F37" s="46"/>
       <c r="G37" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2788,10 +2788,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="36" t="s">
         <v>11</v>
@@ -2807,10 +2807,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>11</v>
@@ -2826,10 +2826,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>14</v>
@@ -2845,7 +2845,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>19</v>
@@ -2866,7 +2866,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>11</v>
@@ -2875,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2883,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>27</v>
@@ -2900,16 +2900,19 @@
         <v>35</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="18">
         <v>6</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="48.6">
@@ -2929,7 +2932,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2949,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2957,10 +2960,10 @@
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
@@ -2978,10 +2981,10 @@
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>11</v>
@@ -2997,10 +3000,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D49" s="48" t="s">
         <v>11</v>
@@ -3010,10 +3013,10 @@
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="51" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="32" customFormat="1">
@@ -3021,13 +3024,13 @@
         <v>41</v>
       </c>
       <c r="B50" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="D50" s="35" t="s">
         <v>90</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>91</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="31"/>
@@ -3038,10 +3041,10 @@
         <v>42</v>
       </c>
       <c r="B51" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>93</v>
       </c>
       <c r="D51" s="35" t="s">
         <v>11</v>
@@ -3057,13 +3060,13 @@
         <v>43</v>
       </c>
       <c r="B52" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>95</v>
-      </c>
       <c r="D52" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="31"/>
@@ -3074,10 +3077,10 @@
         <v>44</v>
       </c>
       <c r="B53" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="35" t="s">
         <v>96</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>97</v>
       </c>
       <c r="D53" s="35" t="s">
         <v>11</v>
@@ -3134,444 +3137,444 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.4">
       <c r="A22" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32.4">
       <c r="A23" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32.4">
       <c r="A24" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32.4">
       <c r="A25" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32.4">
       <c r="A26" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="32.4">
       <c r="A27" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32.4">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="32.4">
       <c r="A30" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="32.4">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32.4">
       <c r="A32" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="32.4">
       <c r="A33" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="32.4">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3589,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3604,12 +3607,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3635,7 +3638,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="162">
@@ -3644,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>11</v>
@@ -3657,10 +3660,10 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64.8">
@@ -3669,23 +3672,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F7" s="28">
         <v>1</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.4">
@@ -3694,13 +3697,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>232</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>234</v>
       </c>
       <c r="F8" s="28">
         <v>16</v>
@@ -3709,10 +3712,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3720,23 +3723,23 @@
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F9" s="28">
         <v>3</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3745,10 +3748,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>14</v>
@@ -3758,10 +3761,10 @@
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3793,60 +3796,60 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" customHeight="1">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="C4" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" t="s">
         <v>258</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>259</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>260</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>261</v>
-      </c>
-      <c r="G4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="E5" t="s">
         <v>265</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>266</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H5" t="s">
         <v>267</v>
-      </c>
-      <c r="F5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G5" t="s">
-        <v>304</v>
-      </c>
-      <c r="H5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3854,40 +3857,40 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>271</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>272</v>
       </c>
-      <c r="F7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" t="s">
-        <v>274</v>
-      </c>
       <c r="H7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="54"/>
       <c r="E8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
         <v>275</v>
       </c>
-      <c r="F8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G8" t="s">
-        <v>277</v>
-      </c>
       <c r="H8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3895,22 +3898,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="E10" t="s">
         <v>280</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>281</v>
-      </c>
-      <c r="E10" t="s">
-        <v>282</v>
-      </c>
-      <c r="H10" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3918,25 +3921,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="E12" t="s">
         <v>285</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" t="s">
         <v>286</v>
       </c>
-      <c r="E12" t="s">
-        <v>287</v>
-      </c>
-      <c r="F12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G12" t="s">
-        <v>288</v>
-      </c>
       <c r="H12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.8" customHeight="1">
@@ -3944,54 +3947,54 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>286</v>
       </c>
-      <c r="E14" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" t="s">
-        <v>288</v>
-      </c>
       <c r="H14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C15" s="54"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3999,43 +4002,43 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" t="s">
         <v>296</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E18" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" t="s">
-        <v>298</v>
-      </c>
       <c r="H18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="C19" s="54"/>
       <c r="E19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4043,25 +4046,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C21" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" t="s">
         <v>285</v>
       </c>
-      <c r="D21" t="s">
-        <v>301</v>
-      </c>
-      <c r="E21" t="s">
-        <v>287</v>
-      </c>
       <c r="F21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4069,40 +4072,40 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" s="54"/>
       <c r="E24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02074970-CFF6-4674-ABCF-BFA87CBA5554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -25,81 +26,81 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="325">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>幣別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>額度編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">銷帳編號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>傳票摘要</t>
   </si>
   <si>
     <t>交易代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -121,67 +122,67 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>整批批號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">借貸別          </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>撥款序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaSecNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SlipNote</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TitaSupNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TxAmt</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>核准主管</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TitaRelCd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作業模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>傳票號碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BranchNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDate,BranchNo,CurrencyCode,AcNoCode,AcSubCode,AcDtlCode,SlipNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BormNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
@@ -191,245 +192,245 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">細目代號    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>記帳金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>會計日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SumNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>彙總別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>帳冊別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>摘要代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ReceivableFlag</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">銷帳科目記號    </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TitaBatchSeq</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Decimald</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">業務科目代號  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcctFlag</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分錄序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登放序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登錄單位別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登錄交易序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登放日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Decimald</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>整批明細序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RelDy,RelTxseq,AcSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">子目代號        </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdAcCode會計科子細目設定檔</t>
   </si>
   <si>
     <t>CdAcCode會計科子細目設定檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DbCr</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">科目代號        </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登錄經辦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcBookFlag</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">帳冊別記號      </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>會計帳務明細檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BranchNo,CurrencyCode,AcNoCode,AcSubCode,AcDtlCode,CustNo,FacmNo,BormNo,RvNo,AcDate,SlipBatNo,SlipNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>單位別(4)+經辦(6)+交易序號(8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CurrencyCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcNoCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcSubCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDtlCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcctCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jason格式紀錄欄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlSumNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlTitaTlrNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlTitaBatchNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlDscptCodeRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlSlipBatNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlTitaSecNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlAcNoCodeRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcNoCode,AcSubCode,AcDtlCode,TitaTlrNo ASC</t>
@@ -466,199 +467,199 @@
   </si>
   <si>
     <t xml:space="preserve">BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcNoCode,AcSubCode,AcDtlCode ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcNoCode,AcSubCode,AcDtlCode,SumNo ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RelTxseq,AcSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>acdtlTitaTlrNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND TitaTlrNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>acdtlTitaBatchNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND TitaBatchNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>acdtlTitaTxCd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT  JSON_VALUE  ("JsonFields",  '$.CaseCloseCode') AS CaseCloseCode
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1.結案、 資負明細科目（放款、催收款項..)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>CaseCloseCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>結案區分</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>findL9RptData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate = ,AND SlipBatNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcNoCode ASC,AcSubCode ASC,AcDtlCode ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RvNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND TitaTxCd = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findL2613</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaTxCd</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>RelDy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RelTxseq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcSeq</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>RelDy ASC,RelTxseq ASC,AcSeq ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TitaKinbr</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>findTxtNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TitaTlrNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TitaTxtNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate = ,AND TitaKinbr = ,AND TitaTlrNo = ,AND TitaTxtNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcSeq ASC</t>
   </si>
   <si>
     <t>AcSeq ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDate,TitaKinbr,TitaTlrNo,TitaTxtNo,AcSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlRelTxseqEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>單位別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">業務科目記號    </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>findL4101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findL6908</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate ASC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND CustNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>acdtlCustNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlAcDateRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bormNoAcDateRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SlipNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND AcctFlag = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate DESC,SlipNo DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔
@@ -671,179 +672,179 @@
 6:催收戶強制執行
 7:轉列呆帳
 8:催收部分轉呆</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>展期記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>代碼檔: 02-業務作業
 RenewCode展期記號
 1.一般
 2.協議</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>區隔帳冊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcSubBookCode</t>
   </si>
   <si>
     <t>SubBookAcNoCodeRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookSumNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookTitaTlrNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookTitaBatchNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookDscptCodeRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookSlipBatNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookTitaSecNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND CustNo = ,AND FacmNo = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaTlrNo &gt;= ,AND TitaTlrNo &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaBatchNo &gt;= ,AND TitaBatchNo &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND DscptCode &gt;= ,AND DscptCode &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SlipBatNo &gt;= ,AND SlipBatNo &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaSecNo &gt;= ,AND TitaSecNo &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SumNo &gt;= ,AND SumNo &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SubBookAcNoCodeRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookSumNoRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookTitaTlrNoRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookTitaBatchNoRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookDscptCodeRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookSlipBatNoRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubBookTitaSecNoRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SumNo &gt;= ,AND SumNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaTlrNo &gt;= ,AND TitaTlrNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaBatchNo &gt;= ,AND TitaBatchNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND DscptCode &gt;= ,AND DscptCode &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SlipBatNo &gt;= ,AND SlipBatNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaSecNo &gt;= ,AND TitaSecNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AcctCode = ,AND CustNo = ,AND RvNo = ,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>出帳與銷帳科目不同時寫入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">RelDy = ,AND RelTxseq = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>D:借
 C:貸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0:非業務科目
 1:資負明細科目（放款、催收款項..)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -865,7 +866,7 @@
 3:指定帳冊，區隔帳冊由業務交易指定
   ※L6201:其他傳票輸入、L618D各項提存</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00A:傳統帳冊
@@ -873,7 +874,7 @@
 帳冊別記號=0時，不須處理
 帳冊別記號=1時，由帳冊別處理公用程式設定
 帳冊別記號=3時，由業務交易帶入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01~10:關帳
@@ -885,53 +886,53 @@
 97:迴轉上月
 95:未付火險費提存
 94:迴轉上月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1:一段式
 2:二段式
 3:三段式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlAcDateRange2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode =  ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findL4701First</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate = ,AND RelTxseq = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>acdtlRelTxseqEq2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>acdtlSlipNo2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate = ,AND SlipNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">RelDy = ,AND SlipNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>acdtlSlipNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SlipNo ASC,RelTxseq,AcSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0:非銷帳科目(會計科子細目設定檔帶入)
@@ -939,60 +940,60 @@
 2:業務銷帳科目(會計科子細目設定檔帶入)
 3:未收費用、4-短繳期金、5-另收欠款(業務帶入)
 8:核心銷帳碼科目，須以銷帳編號(銷帳碼彙總)上傳核心(會計科子細目設定檔帶入)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SlipBatNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>傳票批號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EntAc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findSlipBatNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系統參數設定檔帶入
 000：全帳冊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcctCode,CustNo,FacmNo,AcDate,RvNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StampTaxFreeAmt</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>免印花稅金額</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>銷帳業務科目代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>還款來源 = 4.支票兌現 &amp;&amp; 業務科目 = 利息收入(Ixx)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">撥還共用(0XX)／還款來源(1xx)／撥款方式(2xx)
@@ -1019,23 +1020,23 @@
 205:核心退款(整批匯款)
 211:退款新光(存入憑條)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acdtlTitaBatchNoSlipNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>00：單筆傳票  01~99：彙總傳票批號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SlipSumNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaHCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0:正常
@@ -1043,352 +1044,360 @@
 2:被訂正
 3:沖正
 4:被沖正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>訂正別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>入總帳記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>業務類別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>01:撥款匯款(含暫收退還匯款) 02-支票繳款(限期票、即期票存入) 09-放款(含抽退票)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2023-01-05 智偉新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>銷帳科目記號=8核心銷帳碼科目時為銷帳碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>未用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DscptCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>L6201其他傳票輸入、L618D 提存入帳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RenewCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>更新程式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDetailCom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RvAcctCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EntAc 入總帳記號 0:未入帳 1:已入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>pattern</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcHcode </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分錄</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EntAc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TitaHCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>更新會計相關檔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.經辦登錄</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1.經辦登錄</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0-正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>產生正向帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 0:未入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>v</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2.經辦訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3-沖正帳務(訂正、不入帳)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>更新正向帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 0:未入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2:被訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>產生反向帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 0:未入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1:訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">3.經辦修正 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 1).訂正 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3.修正刪除</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1-刪除帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>刪除正向帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>v</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 2).登錄</t>
   </si>
   <si>
     <t>1.經辦登錄</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0-正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>產生正向帳務</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0:正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>4.主管放行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>4.主管放行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1:已入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>`</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>5.放行訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0:未入帳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">6.已放行訂正、經辦修正 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 1).訂正 </t>
   </si>
   <si>
     <t>2.經辦訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2:被訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1:訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0-正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>7.已放行訂正、經辦訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>5:兩段式已放行訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0:正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>5.放行訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1-刪除帳務</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>AcHcode 帳務訂正記號 0-正常 1-刪除帳務2-沖正帳務(沖正、要入帳) 3-沖正帳務(訂正、不入帳)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>v</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TitaHCode 訂正別 0:正常 1:訂正 2:被訂正 3:沖正 4:被沖正5:兩段式已放行訂正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcctCode = ,AND CustNo = ,AND RvNo = ,AND AcDate = ,AND DbCr = ,AND TitaHCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findSlipBatNoEntAc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate = ,AND SlipBatNo = ,AND EntAc =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0:未入帳
 1:已入帳
 9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=8,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9nnnnn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MediaSlipNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>總帳傳票號碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>彙總傳票號碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>格式:F10+民國年+月份(1碼)+日期+3碼序號
 由產生SlipMedia2022(總帳傳票媒體檔)L9130Report2022寫入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaBatchNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>JsonFields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ReconCode</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>對帳類別</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>整批入帳時寫入(不含訂正及訂正後再入)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>整批入帳時寫入彙總傳票批號(01~99)，L9130Report2022產生SlipMedia2022(總帳傳票媒體檔)時更新為9NNNNN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">匯款轉帳:A1~A7、銀扣:扣款銀行代號 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1504,6 +1513,13 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="思源宋體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1580,175 +1596,181 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1757,23 +1779,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="4" xr:uid="{07280199-3854-4FF3-81B6-3C0F9A715BE3}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{B4EF2443-52FF-483B-94BC-A10A857EB283}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1789,9 +1819,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1829,9 +1859,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1866,7 +1896,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1901,7 +1931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2074,11 +2104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -2883,7 +2913,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>27</v>
@@ -2912,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="48.6">
@@ -2963,7 +2993,7 @@
         <v>239</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
@@ -2973,7 +3003,7 @@
       </c>
       <c r="F47" s="46"/>
       <c r="G47" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="32" customFormat="1">
@@ -2981,7 +3011,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>97</v>
@@ -3000,10 +3030,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C49" s="49" t="s">
         <v>315</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>316</v>
       </c>
       <c r="D49" s="48" t="s">
         <v>11</v>
@@ -3013,7 +3043,7 @@
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H49" s="52" t="s">
         <v>246</v>
@@ -3101,14 +3131,14 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3578,18 +3608,18 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3605,8 +3635,8 @@
     <col min="9" max="9" width="25.33203125" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="162">
+      <c r="A1" s="59" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3748,34 +3778,34 @@
         <v>5</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>14</v>
+      <c r="E10" s="60" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="33" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>253</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4118,7 +4148,7 @@
       <c r="C27" s="54"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02074970-CFF6-4674-ABCF-BFA87CBA5554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F00F62-A774-4C6C-878F-05CF7384EBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1779,6 +1779,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1790,12 +1796,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2107,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -2124,10 +2124,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="7" t="s">
         <v>74</v>
       </c>
@@ -2139,8 +2139,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2152,10 +2152,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="15" t="s">
         <v>69</v>
       </c>
@@ -2167,10 +2167,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="9"/>
@@ -2178,10 +2178,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="64.8">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="15" t="s">
         <v>39</v>
       </c>
@@ -2191,10 +2191,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="81">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="15" t="s">
         <v>81</v>
       </c>
@@ -2204,10 +2204,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="48.6">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="39" t="s">
         <v>150</v>
       </c>
@@ -2217,10 +2217,10 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="32.4">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="33" t="s">
         <v>228</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="E48" s="18">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="28"/>
@@ -3618,7 +3618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3636,7 +3636,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="162">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
       <c r="D10" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="56" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="28">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F00F62-A774-4C6C-878F-05CF7384EBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81AD14F-EC3C-498B-B261-1D2DB34B19F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -370,10 +370,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1378,6 +1374,9 @@
   <si>
     <t xml:space="preserve">匯款轉帳:A1~A7、銀扣:扣款銀行代號 </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -2108,7 +2107,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -2205,11 +2204,11 @@
     </row>
     <row r="7" spans="1:7" ht="48.6">
       <c r="A7" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="9"/>
@@ -2218,11 +2217,11 @@
     </row>
     <row r="8" spans="1:7" ht="32.4">
       <c r="A8" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="9"/>
@@ -2257,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>66</v>
@@ -2276,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>63</v>
@@ -2297,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>62</v>
@@ -2316,7 +2315,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>47</v>
@@ -2338,7 +2337,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>11</v>
@@ -2469,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2497,19 +2496,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="18">
         <v>1</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2517,7 +2516,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>15</v>
@@ -2572,7 +2571,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>17</v>
@@ -2585,7 +2584,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="32" customFormat="1" ht="32.4">
@@ -2596,7 +2595,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>54</v>
@@ -2606,7 +2605,7 @@
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="32" customFormat="1" ht="81">
@@ -2627,7 +2626,7 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" ht="113.4">
@@ -2648,7 +2647,7 @@
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.4">
@@ -2656,7 +2655,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>50</v>
@@ -2671,7 +2670,7 @@
         <v>43</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81">
@@ -2679,10 +2678,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>42</v>
@@ -2692,7 +2691,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="405">
@@ -2712,7 +2711,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2720,7 +2719,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>51</v>
@@ -2732,7 +2731,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2752,7 +2751,7 @@
         <v>80</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="145.80000000000001">
@@ -2760,10 +2759,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>44</v>
@@ -2772,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2780,7 +2779,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>37</v>
@@ -2797,10 +2796,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>11</v>
@@ -2810,7 +2809,7 @@
       </c>
       <c r="F37" s="46"/>
       <c r="G37" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2818,7 +2817,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>64</v>
@@ -2837,7 +2836,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>77</v>
@@ -2856,7 +2855,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>65</v>
@@ -2875,7 +2874,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>19</v>
@@ -2896,7 +2895,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>11</v>
@@ -2905,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2913,7 +2912,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>27</v>
@@ -2942,7 +2941,7 @@
         <v>6</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="48.6">
@@ -2962,7 +2961,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2982,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2990,10 +2989,10 @@
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
@@ -3003,7 +3002,7 @@
       </c>
       <c r="F47" s="46"/>
       <c r="G47" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="32" customFormat="1">
@@ -3011,10 +3010,10 @@
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>11</v>
@@ -3030,10 +3029,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="49" t="s">
         <v>314</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>315</v>
       </c>
       <c r="D49" s="48" t="s">
         <v>11</v>
@@ -3043,10 +3042,10 @@
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H49" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="32" customFormat="1">
@@ -3060,7 +3059,7 @@
         <v>89</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="31"/>
@@ -3071,10 +3070,10 @@
         <v>42</v>
       </c>
       <c r="B51" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>92</v>
       </c>
       <c r="D51" s="35" t="s">
         <v>11</v>
@@ -3090,13 +3089,13 @@
         <v>43</v>
       </c>
       <c r="B52" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>94</v>
-      </c>
       <c r="D52" s="35" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="31"/>
@@ -3107,10 +3106,10 @@
         <v>44</v>
       </c>
       <c r="B53" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="35" t="s">
         <v>95</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>96</v>
       </c>
       <c r="D53" s="35" t="s">
         <v>11</v>
@@ -3167,444 +3166,444 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.4">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32.4">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32.4">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32.4">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32.4">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="32.4">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32.4">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="32.4">
       <c r="A30" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="32.4">
       <c r="A31" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32.4">
       <c r="A32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="32.4">
       <c r="A33" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="32.4">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3637,12 +3636,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="162">
       <c r="A1" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3668,7 +3667,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="162">
@@ -3677,10 +3676,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>127</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>128</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>11</v>
@@ -3690,10 +3689,10 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64.8">
@@ -3702,23 +3701,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>167</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>168</v>
       </c>
       <c r="F7" s="28">
         <v>1</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.4">
@@ -3727,13 +3726,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="F8" s="28">
         <v>16</v>
@@ -3742,10 +3741,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3753,35 +3752,35 @@
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>233</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>234</v>
       </c>
       <c r="F9" s="28">
         <v>3</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="39.6">
       <c r="A10" s="32"/>
       <c r="B10" s="28">
         <v>5</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>320</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>321</v>
       </c>
       <c r="E10" s="56" t="s">
         <v>42</v>
@@ -3791,10 +3790,10 @@
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3826,60 +3825,60 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" customHeight="1">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="C4" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
         <v>256</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>257</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>258</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>259</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>260</v>
-      </c>
-      <c r="H4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="D5" t="s">
         <v>263</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>264</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>265</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" t="s">
         <v>266</v>
-      </c>
-      <c r="G5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3887,40 +3886,40 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>269</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>270</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>271</v>
       </c>
-      <c r="G7" t="s">
-        <v>272</v>
-      </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="54"/>
       <c r="E8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" t="s">
         <v>273</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>274</v>
       </c>
-      <c r="G8" t="s">
-        <v>275</v>
-      </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3928,22 +3927,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" t="s">
         <v>276</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="D10" t="s">
         <v>278</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>279</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>280</v>
-      </c>
-      <c r="H10" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3951,25 +3950,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="D12" t="s">
         <v>283</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>284</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" t="s">
         <v>285</v>
       </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G12" t="s">
-        <v>286</v>
-      </c>
       <c r="H12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.8" customHeight="1">
@@ -3977,54 +3976,54 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="D14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" t="s">
         <v>288</v>
       </c>
-      <c r="D14" t="s">
-        <v>284</v>
-      </c>
-      <c r="E14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F14" t="s">
-        <v>289</v>
-      </c>
       <c r="G14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C15" s="54"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16" t="s">
-        <v>292</v>
-      </c>
       <c r="G16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4032,43 +4031,43 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" t="s">
         <v>293</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="D18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" t="s">
         <v>295</v>
       </c>
-      <c r="D18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" t="s">
-        <v>270</v>
-      </c>
-      <c r="F18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" t="s">
-        <v>296</v>
-      </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="C19" s="54"/>
       <c r="E19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" t="s">
         <v>273</v>
       </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
       <c r="G19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4076,25 +4075,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>283</v>
-      </c>
       <c r="D21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E21" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" t="s">
         <v>285</v>
       </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>286</v>
-      </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4102,40 +4101,40 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C23" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" t="s">
         <v>295</v>
       </c>
-      <c r="D23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" t="s">
-        <v>270</v>
-      </c>
-      <c r="F23" t="s">
-        <v>274</v>
-      </c>
-      <c r="G23" t="s">
-        <v>296</v>
-      </c>
       <c r="H23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" s="54"/>
       <c r="E24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" t="s">
         <v>273</v>
       </c>
-      <c r="F24" t="s">
-        <v>274</v>
-      </c>
       <c r="G24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81AD14F-EC3C-498B-B261-1D2DB34B19F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1325,12 +1324,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0:未入帳
-1:已入帳
-9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=8,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MediaSlipNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1377,12 +1370,18 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>0:不入總帳(未放行、單筆入帳後當日訂正)
+1:入帳總帳
+9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=8,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1799,10 +1798,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="4" xr:uid="{07280199-3854-4FF3-81B6-3C0F9A715BE3}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{B4EF2443-52FF-483B-94BC-A10A857EB283}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="4"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1818,9 +1817,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1858,9 +1857,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1895,7 +1894,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1930,7 +1929,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2103,11 +2102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -2508,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2912,7 +2911,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>27</v>
@@ -2941,7 +2940,7 @@
         <v>6</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="48.6">
@@ -2992,7 +2991,7 @@
         <v>238</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
@@ -3002,7 +3001,7 @@
       </c>
       <c r="F47" s="46"/>
       <c r="G47" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="32" customFormat="1">
@@ -3010,7 +3009,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>96</v>
@@ -3029,10 +3028,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="C49" s="49" t="s">
         <v>313</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>314</v>
       </c>
       <c r="D49" s="48" t="s">
         <v>11</v>
@@ -3042,7 +3041,7 @@
       </c>
       <c r="F49" s="50"/>
       <c r="G49" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H49" s="52" t="s">
         <v>245</v>
@@ -3059,7 +3058,7 @@
         <v>89</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="31"/>
@@ -3095,7 +3094,7 @@
         <v>93</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="31"/>
@@ -3137,7 +3136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3614,7 +3613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3771,16 +3770,16 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="39.6">
+    <row r="10" spans="1:9">
       <c r="A10" s="32"/>
       <c r="B10" s="28">
         <v>5</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>319</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>320</v>
       </c>
       <c r="E10" s="56" t="s">
         <v>42</v>
@@ -3790,7 +3789,7 @@
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>252</v>
@@ -3804,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
     <sheet name="訂正處理" sheetId="5" r:id="rId4"/>
+    <sheet name="報表核對" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="354">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -872,24 +873,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>01~10:關帳
-11:支票繳款
-90~99:提存帳務，不會更新AcMain總帳檔
-99:利息提存
-98:迴轉上月
-96:放款承諾
-97:迴轉上月
-95:未付火險費提存
-94:迴轉上月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:一段式
-2:二段式
-3:三段式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>acdtlAcDateRange2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -942,10 +925,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>傳票批號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EntAc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -963,19 +942,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>StampTaxFreeAmt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免印花稅金額</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StampTaxFreeAmt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免印花稅金額</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -991,38 +966,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">撥還共用(0XX)／還款來源(1xx)／撥款方式(2xx)
-001:催呆轉帳
-090:暫收抵繳
-091:借新還舊
-092:暫收轉帳
-093:抽退票
-094:轉債協暫收款
-095:轉債協退還款
-099:暫收沖正
-101:匯款轉帳
-102:銀行扣款
-103:員工扣款
-104:支票兌現
-105:法院扣薪
-106:理賠金
-107:代收款-債權協商
-109:其他
-111:匯款轉帳預先作業
-201:整批匯款
-202:單筆匯款
-204:退款他行(匯款單)
-205:核心退款(整批匯款)
-211:退款新光(存入憑條)
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>acdtlTitaBatchNoSlipNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>00：單筆傳票  01~99：彙總傳票批號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1054,19 +998,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>01:撥款匯款(含暫收退還匯款) 02-支票繳款(限期票、即期票存入) 09-放款(含抽退票)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-01-05 智偉新增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳科目記號=8核心銷帳碼科目時為銷帳碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1336,11 +1268,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>格式:F10+民國年+月份(1碼)+日期+3碼序號
-由產生SlipMedia2022(總帳傳票媒體檔)L9130Report2022寫入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaBatchNo</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1357,32 +1284,239 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>整批入帳時寫入(不含訂正及訂正後再入)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>整批入帳時寫入彙總傳票批號(01~99)，L9130Report2022產生SlipMedia2022(總帳傳票媒體檔)時更新為9NNNNN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">匯款轉帳:A1~A7、銀扣:扣款銀行代號 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcRepayCom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcRepayCom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:撥款退款 
+02-支票繳款(期票、即期票存入) 
+09-放款(含抽退票)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳票批號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>來源去處共用(0XX)／還款來源(1xx)／撥款退款(2xx)
+CdCode.SumNo
+090 暫收抵繳
+091 借新還舊
+092 暫收轉帳
+093 繳抽退票
+094 轉債協暫收款
+095 展期
+101 匯款轉帳
+102 銀行扣款
+103 員工扣款
+104 支票兌現
+105 法院扣薪
+106 理賠金
+107 代收款-債權協商
+109 其他
+111 大額匯款手工增入入帳
+201 核心匯款
+202 整批匯款
+203 單筆匯款
+204 退款他行(匯款單)
+205 核心退款(整批匯款)
+211 退款新光(存入憑條)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整批入帳檔明細序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0:不入總帳(未放行、單筆入帳後當日訂正)
 1:入帳總帳
-9.提存傳票已上傳核心(產生傳票批號&gt;=90上傳核心傳票檔時抓取EntAc=8,並更新為9，正常傳票與沖正傳票分批上傳核心時使用)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+9.提存傳票(產生傳票批號&gt;=90，不入總帳)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯款轉帳摘要代號
+CdCode.BankRmftCode
+0001 現金存入
+0002 現金存入沖
+0071 匯入匯款
+0087 AT存入
+0148 轉帳
+0201 FEDI跨轉
+1009 更正轉帳
+1152 語音自轉
+1346 AT繳費
+1416 AT自收
+1417 AT跨收
+1424 行動自收</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:一段式
+2:二段式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9nnnnn，產生總帳傳票媒體檔時寫入
+L9130Report2022產生SlipMedia2022時更新(整批入帳時寫入彙總傳票批號 01~99</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10+民國年+月份(1碼)+日期+3碼序號，產生總帳傳票媒體檔時寫入
+L9130Report2022產生SlipMedia2022時更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳科目記號=8核心銷帳碼科目時為銷帳碼會另編總帳傳票號碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01~10:放款
+11:支票繳款
+90~99:提存帳務，不會更新AcMain總帳檔
+99:利息提存
+98:利息提存迴轉上月
+97:放款承諾迴轉上月
+96:放款承諾提存
+95:未付火險費提存
+94:未付火險費迴轉上月
+93:折溢價攤銷
+92:未兌現應收票據提存
+91:未兌現應收票據迴轉上月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L4211 匯款總傳票明細表
+L4455 銀行扣款總傳票明細表
+L4520 員工扣薪總傳票明細表
+L4212 支票兌現總傳票明細表 </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4101 撥款傳票總表／退款傳票總表
+L4101 撥款／抽退票／退款傳票明細表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>關帳報表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">傳票批號 </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">整批批號 </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>彙總傳票號碼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>總帳傳票號碼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">彙計   </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>明細</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務報表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">整批批號 </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BATXnn:整批入帳(nn:批號)
+LNmmnn:撥款匯款(mm:傳票批號、nn: 00單筆, 01~99 整批)
+RTmmnn:退款匯款(mm:傳票批號、nn: 00單筆, 01~99 整批)
+RESV00:整批入帳後隔日訂正及再入帳
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整批撥款匯款，撥款的整批匯款取傳票號碼最小值</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>L9131 總帳日結單代傳票列印</t>
+  </si>
+  <si>
+    <t>L9132 傳票媒體明細表(總帳)</t>
+  </si>
+  <si>
+    <t>L9132A 傳票媒體總表(總帳)</t>
+  </si>
+  <si>
+    <t>L9132B 傳票媒體明細檔-交易序號</t>
+  </si>
+  <si>
+    <t>L9132C 傳票媒體明細表-櫃員編號</t>
+  </si>
+  <si>
+    <t>L9132D 放款部日計表(總帳)</t>
+  </si>
+  <si>
+    <t>L9135 銀行存款媒體</t>
+  </si>
+  <si>
+    <t>L9130 關帳傳票資料</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳碼</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>L9138 放款授信日報表</t>
+  </si>
+  <si>
+    <t>彙總別</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>展入/展出</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1518,6 +1652,14 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1611,7 +1753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1756,21 +1898,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1783,6 +1910,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1794,6 +1936,18 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2105,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -2220,7 +2374,7 @@
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="9"/>
@@ -2490,24 +2644,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="64.8">
+    <row r="22" spans="1:7" ht="48.6">
       <c r="A22" s="18">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="E22" s="18">
         <v>1</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2583,7 +2737,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="32" customFormat="1" ht="32.4">
@@ -2625,7 +2779,7 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" ht="113.4">
@@ -2669,7 +2823,7 @@
         <v>43</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81">
@@ -2693,7 +2847,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="405">
+    <row r="32" spans="1:7" ht="372.6">
       <c r="A32" s="18">
         <v>23</v>
       </c>
@@ -2710,15 +2864,15 @@
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="226.8">
       <c r="A33" s="18">
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>51</v>
@@ -2729,8 +2883,8 @@
       <c r="E33" s="25">
         <v>4</v>
       </c>
-      <c r="G33" s="23" t="s">
-        <v>247</v>
+      <c r="G33" s="5" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2750,18 +2904,18 @@
         <v>80</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="145.80000000000001">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="194.4">
       <c r="A35" s="18">
         <v>26</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>44</v>
@@ -2770,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>209</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2795,10 +2949,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>11</v>
@@ -2808,7 +2962,7 @@
       </c>
       <c r="F37" s="46"/>
       <c r="G37" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2886,7 +3040,7 @@
       </c>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="48.6">
       <c r="A42" s="18">
         <v>33</v>
       </c>
@@ -2894,7 +3048,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>11</v>
@@ -2903,15 +3057,15 @@
         <v>2</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="68.400000000000006" customHeight="1">
       <c r="A43" s="18">
         <v>34</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>27</v>
@@ -2921,6 +3075,9 @@
       </c>
       <c r="E43" s="25">
         <v>6</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2943,7 +3100,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="48.6">
+    <row r="45" spans="1:7">
       <c r="A45" s="18">
         <v>36</v>
       </c>
@@ -2959,11 +3116,9 @@
       <c r="E45" s="25">
         <v>6</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="32.4">
       <c r="A46" s="18">
         <v>37</v>
       </c>
@@ -2980,18 +3135,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32.4">
       <c r="A47" s="18">
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>14</v>
@@ -3000,8 +3155,8 @@
         <v>6</v>
       </c>
       <c r="F47" s="46"/>
-      <c r="G47" s="23" t="s">
-        <v>321</v>
+      <c r="G47" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="32" customFormat="1">
@@ -3009,7 +3164,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>96</v>
@@ -3023,28 +3178,28 @@
       <c r="F48" s="18"/>
       <c r="G48" s="28"/>
     </row>
-    <row r="49" spans="1:8" s="32" customFormat="1" ht="32.4">
-      <c r="A49" s="42">
+    <row r="49" spans="1:8" s="56" customFormat="1" ht="32.4">
+      <c r="A49" s="25">
         <v>40</v>
       </c>
-      <c r="B49" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="D49" s="48" t="s">
+      <c r="B49" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="25">
         <v>12</v>
       </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>245</v>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="H49" s="56" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="32" customFormat="1">
@@ -3058,7 +3213,7 @@
         <v>89</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="31"/>
@@ -3094,7 +3249,7 @@
         <v>93</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="31"/>
@@ -3528,10 +3683,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>155</v>
@@ -3539,18 +3694,18 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>146</v>
@@ -3558,10 +3713,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>146</v>
@@ -3569,10 +3724,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>146</v>
@@ -3580,18 +3735,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>129</v>
@@ -3599,10 +3754,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3614,9 +3769,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3626,15 +3781,15 @@
     <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" customWidth="1"/>
     <col min="8" max="8" width="46.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="162">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="50" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3666,7 +3821,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="162">
@@ -3691,7 +3846,7 @@
         <v>164</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64.8">
@@ -3700,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>166</v>
@@ -3716,7 +3871,7 @@
         <v>168</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.4">
@@ -3725,13 +3880,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F8" s="28">
         <v>16</v>
@@ -3740,10 +3895,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3751,13 +3906,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F9" s="28">
         <v>3</v>
@@ -3767,7 +3922,7 @@
         <v>203</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3776,12 +3931,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="51" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="28">
@@ -3789,10 +3944,33 @@
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="33" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>252</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="32"/>
+      <c r="B11" s="28">
+        <v>6</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="28">
+        <v>60</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="28" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3824,326 +4002,474 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" customHeight="1">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="54" t="s">
-        <v>255</v>
+      <c r="C4" s="49" t="s">
+        <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>262</v>
+        <v>252</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="54"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>267</v>
+        <v>258</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="54"/>
+      <c r="C8" s="49"/>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H8" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="C9" s="54"/>
+      <c r="C9" s="49"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>277</v>
+        <v>267</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>268</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H10" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="54"/>
+      <c r="C11" s="49"/>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>282</v>
+        <v>272</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G12" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H12" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.8" customHeight="1">
-      <c r="C13" s="54"/>
+      <c r="C13" s="49"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>287</v>
+        <v>277</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>278</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G14" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="54"/>
+        <v>280</v>
+      </c>
+      <c r="C15" s="49"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>302</v>
+        <v>281</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>293</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" t="s">
         <v>291</v>
       </c>
-      <c r="G16" t="s">
-        <v>300</v>
-      </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="C17" s="54"/>
+      <c r="C17" s="49"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>294</v>
+        <v>284</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>285</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F18" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="C19" s="54"/>
+      <c r="C19" s="49"/>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H19" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="C20" s="54"/>
+      <c r="C20" s="49"/>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>281</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>282</v>
+        <v>272</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E21" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F21" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G21" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="C22" s="54"/>
+      <c r="C22" s="49"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="49"/>
+      <c r="E24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F23" t="s">
-        <v>273</v>
-      </c>
-      <c r="G23" t="s">
-        <v>295</v>
-      </c>
-      <c r="H23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="C24" s="54"/>
-      <c r="E24" t="s">
-        <v>272</v>
-      </c>
-      <c r="F24" t="s">
-        <v>273</v>
-      </c>
-      <c r="G24" t="s">
-        <v>297</v>
-      </c>
-      <c r="H24" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="C25" s="54"/>
+      <c r="C25" s="49"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="C26" s="54"/>
+      <c r="C26" s="49"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="C27" s="54"/>
+      <c r="C27" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.4"/>
+  <cols>
+    <col min="1" max="1" width="25" style="63" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="63" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="63" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="61" customFormat="1">
+      <c r="A1" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.8">
+      <c r="A2" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45.6">
+      <c r="A4" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="61" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>353</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
